--- a/Original/Tables/NewTU_Technologies_ORG.xlsx
+++ b/Original/Tables/NewTU_Technologies_ORG.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodionov\YandexDisk\Very New Terra Ultima 23-24\TABLES NEW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodionov\YandexDisk\Very New Terra Ultima 23-24\Python\NEW24\CivV_DatabaseConverter\Original\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11865" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11865" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Technologies" sheetId="1" r:id="rId1"/>
@@ -2183,7 +2183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2240,6 +2240,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2523,7 +2532,7 @@
   <dimension ref="A1:BB82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="C2" sqref="C2:C82"/>
@@ -6633,16 +6642,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C82"/>
+  <dimension ref="A1:C83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C60" sqref="C60"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -6660,417 +6669,421 @@
         <v>638</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:3" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="19" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="19" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="19" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="19" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="19" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="19" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="19" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="19" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="19" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="19" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="19" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="19" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="19" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="19" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="19" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="19" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="19" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="19" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="19" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="19" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="19" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="19" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="19" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="19" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="19" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="19" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="19" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="19" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B28" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="19" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="19" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="19" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="19" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="19" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="19" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="19" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="19" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="19" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="19" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="19" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="19" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="19" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="19" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="19" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="19" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="19" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="19" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="19" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="19" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="19" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="19" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="19" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="19" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="19" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="19" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="19" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="19" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="19" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="19" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="19" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="19" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="19" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="19" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="19" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="19" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="19" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="19" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="19" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="19" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="19" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="19" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="19" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="19" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="19" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="19" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="19" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="19" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="19" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="19" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="19" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="19" t="s">
         <v>419</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B54" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="19" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="19" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="19" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="19" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="19" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="19" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="19" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="19" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="19" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="19" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A59" s="19" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="19" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A60" s="19" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="19" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A61" s="19" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="19" t="s">
         <v>476</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C62" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="19" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="19" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A63" s="19" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="19" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A64" s="19" t="s">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="19" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A65" s="19" t="s">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" s="19" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="19" t="s">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" s="19" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A67" s="19" t="s">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" s="19" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A68" s="19" t="s">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" s="19" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A69" s="19" t="s">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" s="19" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="19" t="s">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" s="19" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A71" s="19" t="s">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" s="19" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A72" s="19" t="s">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" s="19" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A73" s="19" t="s">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" s="19" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A74" s="19" t="s">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" s="19" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A75" s="19" t="s">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" s="19" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A76" s="19" t="s">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" s="19" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A77" s="19" t="s">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" s="19" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A78" s="19" t="s">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" s="19" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A79" s="19" t="s">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" s="19" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A80" s="19" t="s">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" s="19" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A81" s="19" t="s">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" s="19" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A82" s="19" t="s">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" s="19" t="s">
         <v>626</v>
       </c>
     </row>
@@ -7081,23 +7094,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G82"/>
+  <dimension ref="A1:G83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="7" width="15.7109375" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>635</v>
       </c>
@@ -7120,813 +7133,814 @@
         <v>639</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
         <v>62</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
-        <v>69</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
         <v>90</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
-        <v>97</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
         <v>111</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
-        <v>119</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="1" t="s">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="19" t="s">
         <v>126</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
-        <v>133</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="19" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="19" t="s">
         <v>148</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="19" t="s">
-        <v>155</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C16" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="19" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="19" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="19" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="19" t="s">
         <v>184</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="19" t="s">
-        <v>191</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C21" s="1" t="s">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="19" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="19" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="19" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="19" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="19" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="19" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="19" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="19" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="19" t="s">
         <v>249</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>191</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="19" t="s">
         <v>263</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="19" t="s">
-        <v>270</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="19" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="19" t="s">
         <v>285</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="19" t="s">
-        <v>292</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C35" s="1" t="s">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="19" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="19" t="s">
         <v>299</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="19" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="19" t="s">
         <v>306</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="19" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="19" t="s">
         <v>313</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="19" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="19" t="s">
         <v>320</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="19" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="19" t="s">
         <v>327</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="19" t="s">
-        <v>334</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>306</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="19" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C42" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="19" t="s">
         <v>348</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="19" t="s">
-        <v>356</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>327</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="19" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C45" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="19" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="19" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="19" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C48" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="19" t="s">
+        <v>384</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="19" t="s">
         <v>391</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="19" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="19" t="s">
         <v>398</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="19" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="19" t="s">
         <v>405</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="19" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="19" t="s">
         <v>412</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="19" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="19" t="s">
         <v>419</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="19" t="s">
-        <v>427</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C54" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="19" t="s">
+        <v>427</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="19" t="s">
         <v>434</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="19" t="s">
-        <v>441</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C56" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="19" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="C57" s="1" t="s">
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="19" t="s">
+        <v>448</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="19" t="s">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="19" t="s">
         <v>455</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A59" s="19" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="19" t="s">
         <v>462</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>434</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A60" s="19" t="s">
-        <v>469</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>448</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="19" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C61" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="19" t="s">
+        <v>476</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="19" t="s">
         <v>483</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A63" s="19" t="s">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="19" t="s">
         <v>491</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B64" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A64" s="19" t="s">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="19" t="s">
         <v>498</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A65" s="19" t="s">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="19" t="s">
         <v>505</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="19" t="s">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="19" t="s">
         <v>512</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A67" s="19" t="s">
-        <v>519</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>491</v>
       </c>
       <c r="C67" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="19" t="s">
+        <v>519</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A68" s="19" t="s">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="19" t="s">
         <v>526</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A69" s="19" t="s">
-        <v>533</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="C69" s="1" t="s">
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="19" t="s">
+        <v>533</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="19" t="s">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="19" t="s">
         <v>540</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A71" s="19" t="s">
-        <v>548</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="C71" s="1" t="s">
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="19" t="s">
+        <v>548</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A72" s="19" t="s">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="19" t="s">
         <v>555</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B73" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A73" s="19" t="s">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="19" t="s">
         <v>562</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A74" s="19" t="s">
-        <v>569</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="C74" s="1" t="s">
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="19" t="s">
+        <v>569</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A75" s="19" t="s">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="19" t="s">
         <v>576</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B76" s="1" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A76" s="19" t="s">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="19" t="s">
         <v>583</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A77" s="19" t="s">
-        <v>591</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="19" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="C78" s="1" t="s">
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="19" t="s">
+        <v>598</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D79" s="1" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A79" s="19" t="s">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="19" t="s">
         <v>605</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B80" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D80" s="1" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A80" s="19" t="s">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="19" t="s">
         <v>612</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A81" s="19" t="s">
-        <v>619</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="C81" s="1" t="s">
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="19" t="s">
+        <v>619</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A82" s="19" t="s">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" s="19" t="s">
         <v>626</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B83" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C83" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D83" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="E83" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="F82" s="1" t="s">
+      <c r="F83" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="G82" s="1" t="s">
+      <c r="G83" s="1" t="s">
         <v>619</v>
       </c>
     </row>
@@ -7937,13 +7951,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM82"/>
+  <dimension ref="A1:AM83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7973,7 +7987,7 @@
     <col min="40" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="2" customFormat="1" ht="144.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:39" s="2" customFormat="1" ht="144" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>635</v>
       </c>
@@ -8092,54 +8106,49 @@
         <v>678</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="26">
-        <v>5</v>
-      </c>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="25"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="27"/>
-      <c r="AG2" s="25"/>
-      <c r="AH2" s="26"/>
-      <c r="AI2" s="26"/>
-      <c r="AJ2" s="27"/>
-      <c r="AK2" s="25"/>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="27"/>
+    <row r="2" spans="1:39" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="30"/>
+      <c r="AG2" s="28"/>
+      <c r="AH2" s="29"/>
+      <c r="AI2" s="29"/>
+      <c r="AJ2" s="30"/>
+      <c r="AK2" s="28"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="30"/>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B3" s="25"/>
       <c r="C3" s="26"/>
@@ -8155,7 +8164,7 @@
       <c r="M3" s="27"/>
       <c r="N3" s="25"/>
       <c r="O3" s="26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P3" s="26"/>
       <c r="Q3" s="27"/>
@@ -8166,9 +8175,7 @@
       <c r="V3" s="26"/>
       <c r="W3" s="26"/>
       <c r="X3" s="26"/>
-      <c r="Y3" s="26">
-        <v>1</v>
-      </c>
+      <c r="Y3" s="26"/>
       <c r="Z3" s="26"/>
       <c r="AA3" s="27"/>
       <c r="AB3" s="25"/>
@@ -8186,7 +8193,7 @@
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B4" s="25"/>
       <c r="C4" s="26"/>
@@ -8194,30 +8201,28 @@
       <c r="E4" s="26"/>
       <c r="F4" s="26"/>
       <c r="G4" s="26"/>
-      <c r="H4" s="27">
-        <v>4</v>
-      </c>
+      <c r="H4" s="27"/>
       <c r="I4" s="25"/>
       <c r="J4" s="26"/>
       <c r="K4" s="26"/>
       <c r="L4" s="26"/>
       <c r="M4" s="27"/>
       <c r="N4" s="25"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26">
-        <v>1</v>
-      </c>
+      <c r="O4" s="26">
+        <v>4</v>
+      </c>
+      <c r="P4" s="26"/>
       <c r="Q4" s="27"/>
       <c r="R4" s="25"/>
-      <c r="S4" s="26">
-        <v>3</v>
-      </c>
+      <c r="S4" s="26"/>
       <c r="T4" s="26"/>
       <c r="U4" s="26"/>
       <c r="V4" s="26"/>
       <c r="W4" s="26"/>
       <c r="X4" s="26"/>
-      <c r="Y4" s="26"/>
+      <c r="Y4" s="26">
+        <v>1</v>
+      </c>
       <c r="Z4" s="26"/>
       <c r="AA4" s="27"/>
       <c r="AB4" s="25"/>
@@ -8235,19 +8240,17 @@
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" s="25">
-        <v>1</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="B5" s="25"/>
       <c r="C5" s="26"/>
       <c r="D5" s="26"/>
       <c r="E5" s="26"/>
       <c r="F5" s="26"/>
-      <c r="G5" s="26">
+      <c r="G5" s="26"/>
+      <c r="H5" s="27">
         <v>4</v>
       </c>
-      <c r="H5" s="27"/>
       <c r="I5" s="25"/>
       <c r="J5" s="26"/>
       <c r="K5" s="26"/>
@@ -8255,10 +8258,14 @@
       <c r="M5" s="27"/>
       <c r="N5" s="25"/>
       <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
+      <c r="P5" s="26">
+        <v>1</v>
+      </c>
       <c r="Q5" s="27"/>
       <c r="R5" s="25"/>
-      <c r="S5" s="26"/>
+      <c r="S5" s="26">
+        <v>3</v>
+      </c>
       <c r="T5" s="26"/>
       <c r="U5" s="26"/>
       <c r="V5" s="26"/>
@@ -8282,14 +8289,18 @@
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="B6" s="25"/>
+        <v>76</v>
+      </c>
+      <c r="B6" s="25">
+        <v>1</v>
+      </c>
       <c r="C6" s="26"/>
       <c r="D6" s="26"/>
       <c r="E6" s="26"/>
       <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
+      <c r="G6" s="26">
+        <v>4</v>
+      </c>
       <c r="H6" s="27"/>
       <c r="I6" s="25"/>
       <c r="J6" s="26"/>
@@ -8298,19 +8309,13 @@
       <c r="M6" s="27"/>
       <c r="N6" s="25"/>
       <c r="O6" s="26"/>
-      <c r="P6" s="26">
-        <v>2</v>
-      </c>
+      <c r="P6" s="26"/>
       <c r="Q6" s="27"/>
-      <c r="R6" s="25">
-        <v>5</v>
-      </c>
+      <c r="R6" s="25"/>
       <c r="S6" s="26"/>
       <c r="T6" s="26"/>
       <c r="U6" s="26"/>
-      <c r="V6" s="26">
-        <v>2</v>
-      </c>
+      <c r="V6" s="26"/>
       <c r="W6" s="26"/>
       <c r="X6" s="26"/>
       <c r="Y6" s="26"/>
@@ -8331,7 +8336,7 @@
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B7" s="25"/>
       <c r="C7" s="26"/>
@@ -8340,34 +8345,28 @@
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
       <c r="H7" s="27"/>
-      <c r="I7" s="25">
-        <v>3</v>
-      </c>
-      <c r="J7" s="26">
-        <v>2</v>
-      </c>
+      <c r="I7" s="25"/>
+      <c r="J7" s="26"/>
       <c r="K7" s="26"/>
-      <c r="L7" s="26">
-        <v>3</v>
-      </c>
+      <c r="L7" s="26"/>
       <c r="M7" s="27"/>
       <c r="N7" s="25"/>
       <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
+      <c r="P7" s="26">
+        <v>2</v>
+      </c>
       <c r="Q7" s="27"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="26">
-        <v>3</v>
-      </c>
+      <c r="R7" s="25">
+        <v>5</v>
+      </c>
+      <c r="S7" s="26"/>
       <c r="T7" s="26"/>
       <c r="U7" s="26"/>
       <c r="V7" s="26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W7" s="26"/>
-      <c r="X7" s="26">
-        <v>2</v>
-      </c>
+      <c r="X7" s="26"/>
       <c r="Y7" s="26"/>
       <c r="Z7" s="26"/>
       <c r="AA7" s="27"/>
@@ -8386,7 +8385,7 @@
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B8" s="25"/>
       <c r="C8" s="26"/>
@@ -8395,33 +8394,35 @@
       <c r="F8" s="26"/>
       <c r="G8" s="26"/>
       <c r="H8" s="27"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="26"/>
+      <c r="I8" s="25">
+        <v>3</v>
+      </c>
+      <c r="J8" s="26">
+        <v>2</v>
+      </c>
       <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
+      <c r="L8" s="26">
+        <v>3</v>
+      </c>
       <c r="M8" s="27"/>
       <c r="N8" s="25"/>
       <c r="O8" s="26"/>
-      <c r="P8" s="26">
-        <v>5</v>
-      </c>
+      <c r="P8" s="26"/>
       <c r="Q8" s="27"/>
       <c r="R8" s="25"/>
       <c r="S8" s="26">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="T8" s="26"/>
       <c r="U8" s="26"/>
       <c r="V8" s="26">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="W8" s="26"/>
       <c r="X8" s="26">
         <v>2</v>
       </c>
-      <c r="Y8" s="26">
-        <v>2</v>
-      </c>
+      <c r="Y8" s="26"/>
       <c r="Z8" s="26"/>
       <c r="AA8" s="27"/>
       <c r="AB8" s="25"/>
@@ -8439,14 +8440,12 @@
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B9" s="25"/>
       <c r="C9" s="26"/>
       <c r="D9" s="26"/>
-      <c r="E9" s="26">
-        <v>4</v>
-      </c>
+      <c r="E9" s="26"/>
       <c r="F9" s="26"/>
       <c r="G9" s="26"/>
       <c r="H9" s="27"/>
@@ -8457,23 +8456,27 @@
       <c r="M9" s="27"/>
       <c r="N9" s="25"/>
       <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
+      <c r="P9" s="26">
+        <v>5</v>
+      </c>
       <c r="Q9" s="27"/>
       <c r="R9" s="25"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="26">
+      <c r="S9" s="26">
         <v>6</v>
       </c>
+      <c r="T9" s="26"/>
       <c r="U9" s="26"/>
-      <c r="V9" s="26"/>
+      <c r="V9" s="26">
+        <v>6</v>
+      </c>
       <c r="W9" s="26"/>
       <c r="X9" s="26">
         <v>2</v>
       </c>
-      <c r="Y9" s="26"/>
-      <c r="Z9" s="26">
+      <c r="Y9" s="26">
         <v>2</v>
       </c>
+      <c r="Z9" s="26"/>
       <c r="AA9" s="27"/>
       <c r="AB9" s="25"/>
       <c r="AC9" s="26"/>
@@ -8490,12 +8493,14 @@
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B10" s="25"/>
       <c r="C10" s="26"/>
       <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
+      <c r="E10" s="26">
+        <v>4</v>
+      </c>
       <c r="F10" s="26"/>
       <c r="G10" s="26"/>
       <c r="H10" s="27"/>
@@ -8506,23 +8511,23 @@
       <c r="M10" s="27"/>
       <c r="N10" s="25"/>
       <c r="O10" s="26"/>
-      <c r="P10" s="26">
-        <v>2</v>
-      </c>
+      <c r="P10" s="26"/>
       <c r="Q10" s="27"/>
       <c r="R10" s="25"/>
-      <c r="S10" s="26">
-        <v>8</v>
-      </c>
-      <c r="T10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26">
+        <v>6</v>
+      </c>
       <c r="U10" s="26"/>
-      <c r="V10" s="26">
-        <v>3</v>
-      </c>
+      <c r="V10" s="26"/>
       <c r="W10" s="26"/>
-      <c r="X10" s="26"/>
+      <c r="X10" s="26">
+        <v>2</v>
+      </c>
       <c r="Y10" s="26"/>
-      <c r="Z10" s="26"/>
+      <c r="Z10" s="26">
+        <v>2</v>
+      </c>
       <c r="AA10" s="27"/>
       <c r="AB10" s="25"/>
       <c r="AC10" s="26"/>
@@ -8539,39 +8544,35 @@
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="26"/>
       <c r="D11" s="26"/>
       <c r="E11" s="26"/>
       <c r="F11" s="26"/>
-      <c r="G11" s="26">
-        <v>2</v>
-      </c>
-      <c r="H11" s="27">
-        <v>2</v>
-      </c>
+      <c r="G11" s="26"/>
+      <c r="H11" s="27"/>
       <c r="I11" s="25"/>
       <c r="J11" s="26"/>
       <c r="K11" s="26"/>
       <c r="L11" s="26"/>
       <c r="M11" s="27"/>
       <c r="N11" s="25"/>
-      <c r="O11" s="26">
+      <c r="O11" s="26"/>
+      <c r="P11" s="26">
         <v>2</v>
       </c>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="27">
-        <v>4</v>
-      </c>
+      <c r="Q11" s="27"/>
       <c r="R11" s="25"/>
       <c r="S11" s="26">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T11" s="26"/>
       <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
+      <c r="V11" s="26">
+        <v>3</v>
+      </c>
       <c r="W11" s="26"/>
       <c r="X11" s="26"/>
       <c r="Y11" s="26"/>
@@ -8592,39 +8593,41 @@
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="26"/>
-      <c r="D12" s="26">
-        <v>4</v>
-      </c>
+      <c r="D12" s="26"/>
       <c r="E12" s="26"/>
       <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="27"/>
+      <c r="G12" s="26">
+        <v>2</v>
+      </c>
+      <c r="H12" s="27">
+        <v>2</v>
+      </c>
       <c r="I12" s="25"/>
       <c r="J12" s="26"/>
       <c r="K12" s="26"/>
       <c r="L12" s="26"/>
       <c r="M12" s="27"/>
       <c r="N12" s="25"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26">
+      <c r="O12" s="26">
         <v>2</v>
       </c>
-      <c r="Q12" s="27"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="27">
+        <v>4</v>
+      </c>
       <c r="R12" s="25"/>
-      <c r="S12" s="26"/>
+      <c r="S12" s="26">
+        <v>6</v>
+      </c>
       <c r="T12" s="26"/>
       <c r="U12" s="26"/>
-      <c r="V12" s="26">
-        <v>2</v>
-      </c>
+      <c r="V12" s="26"/>
       <c r="W12" s="26"/>
-      <c r="X12" s="26">
-        <v>4</v>
-      </c>
+      <c r="X12" s="26"/>
       <c r="Y12" s="26"/>
       <c r="Z12" s="26"/>
       <c r="AA12" s="27"/>
@@ -8643,16 +8646,14 @@
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="26">
-        <v>8</v>
-      </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26">
-        <v>5</v>
-      </c>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26">
+        <v>4</v>
+      </c>
+      <c r="E13" s="26"/>
       <c r="F13" s="26"/>
       <c r="G13" s="26"/>
       <c r="H13" s="27"/>
@@ -8663,15 +8664,21 @@
       <c r="M13" s="27"/>
       <c r="N13" s="25"/>
       <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
+      <c r="P13" s="26">
+        <v>2</v>
+      </c>
       <c r="Q13" s="27"/>
       <c r="R13" s="25"/>
       <c r="S13" s="26"/>
       <c r="T13" s="26"/>
       <c r="U13" s="26"/>
-      <c r="V13" s="26"/>
+      <c r="V13" s="26">
+        <v>2</v>
+      </c>
       <c r="W13" s="26"/>
-      <c r="X13" s="26"/>
+      <c r="X13" s="26">
+        <v>4</v>
+      </c>
       <c r="Y13" s="26"/>
       <c r="Z13" s="26"/>
       <c r="AA13" s="27"/>
@@ -8690,37 +8697,31 @@
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="26"/>
+      <c r="C14" s="26">
+        <v>8</v>
+      </c>
       <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
+      <c r="E14" s="26">
+        <v>5</v>
+      </c>
       <c r="F14" s="26"/>
       <c r="G14" s="26"/>
       <c r="H14" s="27"/>
-      <c r="I14" s="25">
-        <v>5</v>
-      </c>
+      <c r="I14" s="25"/>
       <c r="J14" s="26"/>
-      <c r="K14" s="26">
-        <v>5</v>
-      </c>
+      <c r="K14" s="26"/>
       <c r="L14" s="26"/>
       <c r="M14" s="27"/>
-      <c r="N14" s="25">
-        <v>5</v>
-      </c>
-      <c r="O14" s="26">
-        <v>5</v>
-      </c>
+      <c r="N14" s="25"/>
+      <c r="O14" s="26"/>
       <c r="P14" s="26"/>
       <c r="Q14" s="27"/>
       <c r="R14" s="25"/>
       <c r="S14" s="26"/>
-      <c r="T14" s="26">
-        <v>5</v>
-      </c>
+      <c r="T14" s="26"/>
       <c r="U14" s="26"/>
       <c r="V14" s="26"/>
       <c r="W14" s="26"/>
@@ -8743,33 +8744,37 @@
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="B15" s="25">
-        <v>5</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="B15" s="25"/>
       <c r="C15" s="26"/>
       <c r="D15" s="26"/>
       <c r="E15" s="26"/>
       <c r="F15" s="26"/>
       <c r="G15" s="26"/>
-      <c r="H15" s="27">
-        <v>10</v>
-      </c>
-      <c r="I15" s="25"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="25">
+        <v>5</v>
+      </c>
       <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
+      <c r="K15" s="26">
+        <v>5</v>
+      </c>
       <c r="L15" s="26"/>
       <c r="M15" s="27"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="26"/>
+      <c r="N15" s="25">
+        <v>5</v>
+      </c>
+      <c r="O15" s="26">
+        <v>5</v>
+      </c>
       <c r="P15" s="26"/>
       <c r="Q15" s="27"/>
-      <c r="R15" s="25">
-        <v>3</v>
-      </c>
+      <c r="R15" s="25"/>
       <c r="S15" s="26"/>
-      <c r="T15" s="26"/>
+      <c r="T15" s="26">
+        <v>5</v>
+      </c>
       <c r="U15" s="26"/>
       <c r="V15" s="26"/>
       <c r="W15" s="26"/>
@@ -8792,19 +8797,19 @@
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B16" s="25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C16" s="26"/>
       <c r="D16" s="26"/>
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
-      <c r="G16" s="26">
-        <v>8</v>
-      </c>
-      <c r="H16" s="27"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="27">
+        <v>10</v>
+      </c>
       <c r="I16" s="25"/>
       <c r="J16" s="26"/>
       <c r="K16" s="26"/>
@@ -8814,15 +8819,15 @@
       <c r="O16" s="26"/>
       <c r="P16" s="26"/>
       <c r="Q16" s="27"/>
-      <c r="R16" s="25"/>
+      <c r="R16" s="25">
+        <v>3</v>
+      </c>
       <c r="S16" s="26"/>
       <c r="T16" s="26"/>
       <c r="U16" s="26"/>
       <c r="V16" s="26"/>
       <c r="W16" s="26"/>
-      <c r="X16" s="26">
-        <v>2</v>
-      </c>
+      <c r="X16" s="26"/>
       <c r="Y16" s="26"/>
       <c r="Z16" s="26"/>
       <c r="AA16" s="27"/>
@@ -8841,17 +8846,17 @@
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A17" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="26">
-        <v>2</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="B17" s="25">
+        <v>4</v>
+      </c>
+      <c r="C17" s="26"/>
       <c r="D17" s="26"/>
       <c r="E17" s="26"/>
       <c r="F17" s="26"/>
       <c r="G17" s="26">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H17" s="27"/>
       <c r="I17" s="25"/>
@@ -8861,19 +8866,13 @@
       <c r="M17" s="27"/>
       <c r="N17" s="25"/>
       <c r="O17" s="26"/>
-      <c r="P17" s="26">
-        <v>5</v>
-      </c>
+      <c r="P17" s="26"/>
       <c r="Q17" s="27"/>
-      <c r="R17" s="25">
-        <v>6</v>
-      </c>
+      <c r="R17" s="25"/>
       <c r="S17" s="26"/>
       <c r="T17" s="26"/>
       <c r="U17" s="26"/>
-      <c r="V17" s="26">
-        <v>20</v>
-      </c>
+      <c r="V17" s="26"/>
       <c r="W17" s="26"/>
       <c r="X17" s="26">
         <v>2</v>
@@ -8896,14 +8895,18 @@
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A18" s="19" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B18" s="25"/>
-      <c r="C18" s="26"/>
+      <c r="C18" s="26">
+        <v>2</v>
+      </c>
       <c r="D18" s="26"/>
       <c r="E18" s="26"/>
       <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
+      <c r="G18" s="26">
+        <v>6</v>
+      </c>
       <c r="H18" s="27"/>
       <c r="I18" s="25"/>
       <c r="J18" s="26"/>
@@ -8912,24 +8915,24 @@
       <c r="M18" s="27"/>
       <c r="N18" s="25"/>
       <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
+      <c r="P18" s="26">
+        <v>5</v>
+      </c>
       <c r="Q18" s="27"/>
-      <c r="R18" s="25"/>
+      <c r="R18" s="25">
+        <v>6</v>
+      </c>
       <c r="S18" s="26"/>
-      <c r="T18" s="26">
-        <v>3</v>
-      </c>
-      <c r="U18" s="26">
-        <v>6</v>
-      </c>
-      <c r="V18" s="26"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="26">
+        <v>20</v>
+      </c>
       <c r="W18" s="26"/>
       <c r="X18" s="26">
         <v>2</v>
       </c>
-      <c r="Y18" s="26">
-        <v>2</v>
-      </c>
+      <c r="Y18" s="26"/>
       <c r="Z18" s="26"/>
       <c r="AA18" s="27"/>
       <c r="AB18" s="25"/>
@@ -8947,7 +8950,7 @@
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A19" s="19" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B19" s="25"/>
       <c r="C19" s="26"/>
@@ -8967,16 +8970,20 @@
       <c r="Q19" s="27"/>
       <c r="R19" s="25"/>
       <c r="S19" s="26"/>
-      <c r="T19" s="26"/>
+      <c r="T19" s="26">
+        <v>3</v>
+      </c>
       <c r="U19" s="26">
         <v>6</v>
       </c>
       <c r="V19" s="26"/>
-      <c r="W19" s="26">
-        <v>3</v>
-      </c>
-      <c r="X19" s="26"/>
-      <c r="Y19" s="26"/>
+      <c r="W19" s="26"/>
+      <c r="X19" s="26">
+        <v>2</v>
+      </c>
+      <c r="Y19" s="26">
+        <v>2</v>
+      </c>
       <c r="Z19" s="26"/>
       <c r="AA19" s="27"/>
       <c r="AB19" s="25"/>
@@ -8994,7 +9001,7 @@
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A20" s="19" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B20" s="25"/>
       <c r="C20" s="26"/>
@@ -9013,16 +9020,16 @@
       <c r="P20" s="26"/>
       <c r="Q20" s="27"/>
       <c r="R20" s="25"/>
-      <c r="S20" s="26">
-        <v>20</v>
-      </c>
+      <c r="S20" s="26"/>
       <c r="T20" s="26"/>
-      <c r="U20" s="26"/>
+      <c r="U20" s="26">
+        <v>6</v>
+      </c>
       <c r="V20" s="26"/>
-      <c r="W20" s="26"/>
-      <c r="X20" s="26">
-        <v>2</v>
-      </c>
+      <c r="W20" s="26">
+        <v>3</v>
+      </c>
+      <c r="X20" s="26"/>
       <c r="Y20" s="26"/>
       <c r="Z20" s="26"/>
       <c r="AA20" s="27"/>
@@ -9041,12 +9048,10 @@
     </row>
     <row r="21" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B21" s="25"/>
-      <c r="C21" s="26">
-        <v>2</v>
-      </c>
+      <c r="C21" s="26"/>
       <c r="D21" s="26"/>
       <c r="E21" s="26"/>
       <c r="F21" s="26"/>
@@ -9058,20 +9063,20 @@
       <c r="L21" s="26"/>
       <c r="M21" s="27"/>
       <c r="N21" s="25"/>
-      <c r="O21" s="26">
-        <v>10</v>
-      </c>
+      <c r="O21" s="26"/>
       <c r="P21" s="26"/>
-      <c r="Q21" s="27">
-        <v>2</v>
-      </c>
+      <c r="Q21" s="27"/>
       <c r="R21" s="25"/>
-      <c r="S21" s="26"/>
+      <c r="S21" s="26">
+        <v>20</v>
+      </c>
       <c r="T21" s="26"/>
       <c r="U21" s="26"/>
       <c r="V21" s="26"/>
       <c r="W21" s="26"/>
-      <c r="X21" s="26"/>
+      <c r="X21" s="26">
+        <v>2</v>
+      </c>
       <c r="Y21" s="26"/>
       <c r="Z21" s="26"/>
       <c r="AA21" s="27"/>
@@ -9090,18 +9095,14 @@
     </row>
     <row r="22" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="B22" s="25">
-        <v>12</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="B22" s="25"/>
       <c r="C22" s="26">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D22" s="26"/>
-      <c r="E22" s="26">
-        <v>3</v>
-      </c>
+      <c r="E22" s="26"/>
       <c r="F22" s="26"/>
       <c r="G22" s="26"/>
       <c r="H22" s="27"/>
@@ -9111,9 +9112,13 @@
       <c r="L22" s="26"/>
       <c r="M22" s="27"/>
       <c r="N22" s="25"/>
-      <c r="O22" s="26"/>
+      <c r="O22" s="26">
+        <v>10</v>
+      </c>
       <c r="P22" s="26"/>
-      <c r="Q22" s="27"/>
+      <c r="Q22" s="27">
+        <v>2</v>
+      </c>
       <c r="R22" s="25"/>
       <c r="S22" s="26"/>
       <c r="T22" s="26"/>
@@ -9139,12 +9144,18 @@
     </row>
     <row r="23" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A23" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="26"/>
+        <v>199</v>
+      </c>
+      <c r="B23" s="25">
+        <v>12</v>
+      </c>
+      <c r="C23" s="26">
+        <v>6</v>
+      </c>
       <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
+      <c r="E23" s="26">
+        <v>3</v>
+      </c>
       <c r="F23" s="26"/>
       <c r="G23" s="26"/>
       <c r="H23" s="27"/>
@@ -9162,15 +9173,9 @@
       <c r="T23" s="26"/>
       <c r="U23" s="26"/>
       <c r="V23" s="26"/>
-      <c r="W23" s="26">
-        <v>3</v>
-      </c>
-      <c r="X23" s="26">
-        <v>4</v>
-      </c>
-      <c r="Y23" s="26">
-        <v>6</v>
-      </c>
+      <c r="W23" s="26"/>
+      <c r="X23" s="26"/>
+      <c r="Y23" s="26"/>
       <c r="Z23" s="26"/>
       <c r="AA23" s="27"/>
       <c r="AB23" s="25"/>
@@ -9188,12 +9193,10 @@
     </row>
     <row r="24" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A24" s="19" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B24" s="25"/>
-      <c r="C24" s="26">
-        <v>10</v>
-      </c>
+      <c r="C24" s="26"/>
       <c r="D24" s="26"/>
       <c r="E24" s="26"/>
       <c r="F24" s="26"/>
@@ -9205,23 +9208,23 @@
       <c r="L24" s="26"/>
       <c r="M24" s="27"/>
       <c r="N24" s="25"/>
-      <c r="O24" s="26">
-        <v>20</v>
-      </c>
+      <c r="O24" s="26"/>
       <c r="P24" s="26"/>
       <c r="Q24" s="27"/>
       <c r="R24" s="25"/>
       <c r="S24" s="26"/>
-      <c r="T24" s="26">
-        <v>10</v>
-      </c>
+      <c r="T24" s="26"/>
       <c r="U24" s="26"/>
       <c r="V24" s="26"/>
-      <c r="W24" s="26"/>
+      <c r="W24" s="26">
+        <v>3</v>
+      </c>
       <c r="X24" s="26">
-        <v>2</v>
-      </c>
-      <c r="Y24" s="26"/>
+        <v>4</v>
+      </c>
+      <c r="Y24" s="26">
+        <v>6</v>
+      </c>
       <c r="Z24" s="26"/>
       <c r="AA24" s="27"/>
       <c r="AB24" s="25"/>
@@ -9239,10 +9242,12 @@
     </row>
     <row r="25" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A25" s="19" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B25" s="25"/>
-      <c r="C25" s="26"/>
+      <c r="C25" s="26">
+        <v>10</v>
+      </c>
       <c r="D25" s="26"/>
       <c r="E25" s="26"/>
       <c r="F25" s="26"/>
@@ -9254,14 +9259,16 @@
       <c r="L25" s="26"/>
       <c r="M25" s="27"/>
       <c r="N25" s="25"/>
-      <c r="O25" s="26"/>
+      <c r="O25" s="26">
+        <v>20</v>
+      </c>
       <c r="P25" s="26"/>
       <c r="Q25" s="27"/>
       <c r="R25" s="25"/>
-      <c r="S25" s="26">
-        <v>20</v>
-      </c>
-      <c r="T25" s="26"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="26">
+        <v>10</v>
+      </c>
       <c r="U25" s="26"/>
       <c r="V25" s="26"/>
       <c r="W25" s="26"/>
@@ -9286,18 +9293,12 @@
     </row>
     <row r="26" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A26" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="B26" s="25">
-        <v>3</v>
-      </c>
-      <c r="C26" s="26">
-        <v>3</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="B26" s="25"/>
+      <c r="C26" s="26"/>
       <c r="D26" s="26"/>
-      <c r="E26" s="26">
-        <v>3</v>
-      </c>
+      <c r="E26" s="26"/>
       <c r="F26" s="26"/>
       <c r="G26" s="26"/>
       <c r="H26" s="27"/>
@@ -9310,16 +9311,16 @@
       <c r="O26" s="26"/>
       <c r="P26" s="26"/>
       <c r="Q26" s="27"/>
-      <c r="R26" s="25">
-        <v>25</v>
-      </c>
-      <c r="S26" s="26"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="26">
+        <v>20</v>
+      </c>
       <c r="T26" s="26"/>
       <c r="U26" s="26"/>
       <c r="V26" s="26"/>
       <c r="W26" s="26"/>
       <c r="X26" s="26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y26" s="26"/>
       <c r="Z26" s="26"/>
@@ -9339,18 +9340,22 @@
     </row>
     <row r="27" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A27" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="26"/>
+        <v>228</v>
+      </c>
+      <c r="B27" s="25">
+        <v>3</v>
+      </c>
+      <c r="C27" s="26">
+        <v>3</v>
+      </c>
       <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>3</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="26"/>
       <c r="H27" s="27"/>
-      <c r="I27" s="25">
-        <v>10</v>
-      </c>
+      <c r="I27" s="25"/>
       <c r="J27" s="26"/>
       <c r="K27" s="26"/>
       <c r="L27" s="26"/>
@@ -9360,22 +9365,20 @@
       <c r="P27" s="26"/>
       <c r="Q27" s="27"/>
       <c r="R27" s="25">
-        <v>3</v>
-      </c>
-      <c r="S27" s="26">
-        <v>6</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="S27" s="26"/>
       <c r="T27" s="26"/>
       <c r="U27" s="26"/>
       <c r="V27" s="26"/>
       <c r="W27" s="26"/>
-      <c r="X27" s="26"/>
+      <c r="X27" s="26">
+        <v>3</v>
+      </c>
       <c r="Y27" s="26"/>
       <c r="Z27" s="26"/>
       <c r="AA27" s="27"/>
-      <c r="AB27" s="25">
-        <v>10</v>
-      </c>
+      <c r="AB27" s="25"/>
       <c r="AC27" s="26"/>
       <c r="AD27" s="26"/>
       <c r="AE27" s="26"/>
@@ -9390,7 +9393,7 @@
     </row>
     <row r="28" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A28" s="19" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="26"/>
@@ -9399,7 +9402,9 @@
       <c r="F28" s="26"/>
       <c r="G28" s="26"/>
       <c r="H28" s="27"/>
-      <c r="I28" s="25"/>
+      <c r="I28" s="25">
+        <v>10</v>
+      </c>
       <c r="J28" s="26"/>
       <c r="K28" s="26"/>
       <c r="L28" s="26"/>
@@ -9408,23 +9413,23 @@
       <c r="O28" s="26"/>
       <c r="P28" s="26"/>
       <c r="Q28" s="27"/>
-      <c r="R28" s="25"/>
-      <c r="S28" s="26"/>
-      <c r="T28" s="26">
-        <v>12</v>
-      </c>
+      <c r="R28" s="25">
+        <v>3</v>
+      </c>
+      <c r="S28" s="26">
+        <v>6</v>
+      </c>
+      <c r="T28" s="26"/>
       <c r="U28" s="26"/>
       <c r="V28" s="26"/>
       <c r="W28" s="26"/>
-      <c r="X28" s="26">
-        <v>4</v>
-      </c>
+      <c r="X28" s="26"/>
       <c r="Y28" s="26"/>
-      <c r="Z28" s="26">
-        <v>4</v>
-      </c>
+      <c r="Z28" s="26"/>
       <c r="AA28" s="27"/>
-      <c r="AB28" s="25"/>
+      <c r="AB28" s="25">
+        <v>10</v>
+      </c>
       <c r="AC28" s="26"/>
       <c r="AD28" s="26"/>
       <c r="AE28" s="26"/>
@@ -9439,21 +9444,15 @@
     </row>
     <row r="29" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A29" s="19" t="s">
-        <v>249</v>
-      </c>
-      <c r="B29" s="25">
-        <v>3</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="B29" s="25"/>
       <c r="C29" s="26"/>
-      <c r="D29" s="26">
-        <v>3</v>
-      </c>
+      <c r="D29" s="26"/>
       <c r="E29" s="26"/>
       <c r="F29" s="26"/>
       <c r="G29" s="26"/>
-      <c r="H29" s="27">
-        <v>8</v>
-      </c>
+      <c r="H29" s="27"/>
       <c r="I29" s="25"/>
       <c r="J29" s="26"/>
       <c r="K29" s="26"/>
@@ -9465,16 +9464,18 @@
       <c r="Q29" s="27"/>
       <c r="R29" s="25"/>
       <c r="S29" s="26"/>
-      <c r="T29" s="26"/>
+      <c r="T29" s="26">
+        <v>12</v>
+      </c>
       <c r="U29" s="26"/>
       <c r="V29" s="26"/>
       <c r="W29" s="26"/>
       <c r="X29" s="26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y29" s="26"/>
       <c r="Z29" s="26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA29" s="27"/>
       <c r="AB29" s="25"/>
@@ -9492,19 +9493,21 @@
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A30" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="B30" s="25"/>
-      <c r="C30" s="26">
+        <v>249</v>
+      </c>
+      <c r="B30" s="25">
         <v>3</v>
       </c>
-      <c r="D30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26">
+        <v>3</v>
+      </c>
       <c r="E30" s="26"/>
       <c r="F30" s="26"/>
-      <c r="G30" s="26">
+      <c r="G30" s="26"/>
+      <c r="H30" s="27">
         <v>8</v>
       </c>
-      <c r="H30" s="27"/>
       <c r="I30" s="25"/>
       <c r="J30" s="26"/>
       <c r="K30" s="26"/>
@@ -9513,20 +9516,20 @@
       <c r="N30" s="25"/>
       <c r="O30" s="26"/>
       <c r="P30" s="26"/>
-      <c r="Q30" s="27">
-        <v>4</v>
-      </c>
-      <c r="R30" s="25">
-        <v>2</v>
-      </c>
+      <c r="Q30" s="27"/>
+      <c r="R30" s="25"/>
       <c r="S30" s="26"/>
       <c r="T30" s="26"/>
       <c r="U30" s="26"/>
       <c r="V30" s="26"/>
       <c r="W30" s="26"/>
-      <c r="X30" s="26"/>
+      <c r="X30" s="26">
+        <v>2</v>
+      </c>
       <c r="Y30" s="26"/>
-      <c r="Z30" s="26"/>
+      <c r="Z30" s="26">
+        <v>2</v>
+      </c>
       <c r="AA30" s="27"/>
       <c r="AB30" s="25"/>
       <c r="AC30" s="26"/>
@@ -9543,17 +9546,17 @@
     </row>
     <row r="31" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A31" s="19" t="s">
-        <v>263</v>
-      </c>
-      <c r="B31" s="25">
-        <v>5</v>
-      </c>
-      <c r="C31" s="26"/>
+        <v>256</v>
+      </c>
+      <c r="B31" s="25"/>
+      <c r="C31" s="26">
+        <v>3</v>
+      </c>
       <c r="D31" s="26"/>
       <c r="E31" s="26"/>
       <c r="F31" s="26"/>
       <c r="G31" s="26">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H31" s="27"/>
       <c r="I31" s="25"/>
@@ -9564,16 +9567,18 @@
       <c r="N31" s="25"/>
       <c r="O31" s="26"/>
       <c r="P31" s="26"/>
-      <c r="Q31" s="27"/>
-      <c r="R31" s="25"/>
+      <c r="Q31" s="27">
+        <v>4</v>
+      </c>
+      <c r="R31" s="25">
+        <v>2</v>
+      </c>
       <c r="S31" s="26"/>
       <c r="T31" s="26"/>
       <c r="U31" s="26"/>
       <c r="V31" s="26"/>
       <c r="W31" s="26"/>
-      <c r="X31" s="26">
-        <v>2</v>
-      </c>
+      <c r="X31" s="26"/>
       <c r="Y31" s="26"/>
       <c r="Z31" s="26"/>
       <c r="AA31" s="27"/>
@@ -9592,18 +9597,18 @@
     </row>
     <row r="32" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A32" s="19" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="B32" s="25">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C32" s="26"/>
       <c r="D32" s="26"/>
-      <c r="E32" s="26">
-        <v>5</v>
-      </c>
+      <c r="E32" s="26"/>
       <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
+      <c r="G32" s="26">
+        <v>10</v>
+      </c>
       <c r="H32" s="27"/>
       <c r="I32" s="25"/>
       <c r="J32" s="26"/>
@@ -9620,7 +9625,9 @@
       <c r="U32" s="26"/>
       <c r="V32" s="26"/>
       <c r="W32" s="26"/>
-      <c r="X32" s="26"/>
+      <c r="X32" s="26">
+        <v>2</v>
+      </c>
       <c r="Y32" s="26"/>
       <c r="Z32" s="26"/>
       <c r="AA32" s="27"/>
@@ -9639,37 +9646,31 @@
     </row>
     <row r="33" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A33" s="19" t="s">
-        <v>277</v>
-      </c>
-      <c r="B33" s="25"/>
+        <v>270</v>
+      </c>
+      <c r="B33" s="25">
+        <v>20</v>
+      </c>
       <c r="C33" s="26"/>
       <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26">
+      <c r="E33" s="26">
         <v>5</v>
       </c>
+      <c r="F33" s="26"/>
       <c r="G33" s="26"/>
       <c r="H33" s="27"/>
-      <c r="I33" s="25">
-        <v>5</v>
-      </c>
-      <c r="J33" s="26">
-        <v>15</v>
-      </c>
+      <c r="I33" s="25"/>
+      <c r="J33" s="26"/>
       <c r="K33" s="26"/>
       <c r="L33" s="26"/>
       <c r="M33" s="27"/>
-      <c r="N33" s="25">
-        <v>10</v>
-      </c>
+      <c r="N33" s="25"/>
       <c r="O33" s="26"/>
       <c r="P33" s="26"/>
       <c r="Q33" s="27"/>
       <c r="R33" s="25"/>
       <c r="S33" s="26"/>
-      <c r="T33" s="26">
-        <v>5</v>
-      </c>
+      <c r="T33" s="26"/>
       <c r="U33" s="26"/>
       <c r="V33" s="26"/>
       <c r="W33" s="26"/>
@@ -9692,35 +9693,41 @@
     </row>
     <row r="34" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A34" s="19" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="B34" s="25"/>
       <c r="C34" s="26"/>
       <c r="D34" s="26"/>
       <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
+      <c r="F34" s="26">
+        <v>5</v>
+      </c>
       <c r="G34" s="26"/>
       <c r="H34" s="27"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="26"/>
+      <c r="I34" s="25">
+        <v>5</v>
+      </c>
+      <c r="J34" s="26">
+        <v>15</v>
+      </c>
       <c r="K34" s="26"/>
       <c r="L34" s="26"/>
       <c r="M34" s="27"/>
-      <c r="N34" s="25"/>
+      <c r="N34" s="25">
+        <v>10</v>
+      </c>
       <c r="O34" s="26"/>
       <c r="P34" s="26"/>
       <c r="Q34" s="27"/>
       <c r="R34" s="25"/>
       <c r="S34" s="26"/>
-      <c r="T34" s="26"/>
-      <c r="U34" s="26">
-        <v>8</v>
-      </c>
+      <c r="T34" s="26">
+        <v>5</v>
+      </c>
+      <c r="U34" s="26"/>
       <c r="V34" s="26"/>
       <c r="W34" s="26"/>
-      <c r="X34" s="26">
-        <v>4</v>
-      </c>
+      <c r="X34" s="26"/>
       <c r="Y34" s="26"/>
       <c r="Z34" s="26"/>
       <c r="AA34" s="27"/>
@@ -9739,7 +9746,7 @@
     </row>
     <row r="35" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A35" s="19" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B35" s="25"/>
       <c r="C35" s="26"/>
@@ -9753,24 +9760,20 @@
       <c r="K35" s="26"/>
       <c r="L35" s="26"/>
       <c r="M35" s="27"/>
-      <c r="N35" s="25">
-        <v>5</v>
-      </c>
+      <c r="N35" s="25"/>
       <c r="O35" s="26"/>
       <c r="P35" s="26"/>
       <c r="Q35" s="27"/>
       <c r="R35" s="25"/>
-      <c r="S35" s="26">
-        <v>20</v>
-      </c>
+      <c r="S35" s="26"/>
       <c r="T35" s="26"/>
-      <c r="U35" s="26"/>
-      <c r="V35" s="26">
-        <v>5</v>
-      </c>
+      <c r="U35" s="26">
+        <v>8</v>
+      </c>
+      <c r="V35" s="26"/>
       <c r="W35" s="26"/>
       <c r="X35" s="26">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="Y35" s="26"/>
       <c r="Z35" s="26"/>
@@ -9790,7 +9793,7 @@
     </row>
     <row r="36" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A36" s="19" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B36" s="25"/>
       <c r="C36" s="26"/>
@@ -9804,22 +9807,24 @@
       <c r="K36" s="26"/>
       <c r="L36" s="26"/>
       <c r="M36" s="27"/>
-      <c r="N36" s="25"/>
+      <c r="N36" s="25">
+        <v>5</v>
+      </c>
       <c r="O36" s="26"/>
       <c r="P36" s="26"/>
       <c r="Q36" s="27"/>
       <c r="R36" s="25"/>
-      <c r="S36" s="26"/>
+      <c r="S36" s="26">
+        <v>20</v>
+      </c>
       <c r="T36" s="26"/>
       <c r="U36" s="26"/>
       <c r="V36" s="26">
-        <v>12</v>
-      </c>
-      <c r="W36" s="26">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="W36" s="26"/>
       <c r="X36" s="26">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Y36" s="26"/>
       <c r="Z36" s="26"/>
@@ -9839,14 +9844,10 @@
     </row>
     <row r="37" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A37" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="B37" s="25">
-        <v>6</v>
-      </c>
-      <c r="C37" s="26">
-        <v>12</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="B37" s="25"/>
+      <c r="C37" s="26"/>
       <c r="D37" s="26"/>
       <c r="E37" s="26"/>
       <c r="F37" s="26"/>
@@ -9865,10 +9866,14 @@
       <c r="S37" s="26"/>
       <c r="T37" s="26"/>
       <c r="U37" s="26"/>
-      <c r="V37" s="26"/>
-      <c r="W37" s="26"/>
+      <c r="V37" s="26">
+        <v>12</v>
+      </c>
+      <c r="W37" s="26">
+        <v>2</v>
+      </c>
       <c r="X37" s="26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y37" s="26"/>
       <c r="Z37" s="26"/>
@@ -9888,18 +9893,20 @@
     </row>
     <row r="38" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A38" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="26"/>
+        <v>306</v>
+      </c>
+      <c r="B38" s="25">
+        <v>6</v>
+      </c>
+      <c r="C38" s="26">
+        <v>12</v>
+      </c>
       <c r="D38" s="26"/>
       <c r="E38" s="26"/>
       <c r="F38" s="26"/>
       <c r="G38" s="26"/>
       <c r="H38" s="27"/>
-      <c r="I38" s="25">
-        <v>14</v>
-      </c>
+      <c r="I38" s="25"/>
       <c r="J38" s="26"/>
       <c r="K38" s="26"/>
       <c r="L38" s="26"/>
@@ -9908,15 +9915,15 @@
       <c r="O38" s="26"/>
       <c r="P38" s="26"/>
       <c r="Q38" s="27"/>
-      <c r="R38" s="25">
-        <v>4</v>
-      </c>
+      <c r="R38" s="25"/>
       <c r="S38" s="26"/>
       <c r="T38" s="26"/>
       <c r="U38" s="26"/>
       <c r="V38" s="26"/>
       <c r="W38" s="26"/>
-      <c r="X38" s="26"/>
+      <c r="X38" s="26">
+        <v>2</v>
+      </c>
       <c r="Y38" s="26"/>
       <c r="Z38" s="26"/>
       <c r="AA38" s="27"/>
@@ -9935,7 +9942,7 @@
     </row>
     <row r="39" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A39" s="19" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="B39" s="25"/>
       <c r="C39" s="26"/>
@@ -9944,7 +9951,9 @@
       <c r="F39" s="26"/>
       <c r="G39" s="26"/>
       <c r="H39" s="27"/>
-      <c r="I39" s="25"/>
+      <c r="I39" s="25">
+        <v>14</v>
+      </c>
       <c r="J39" s="26"/>
       <c r="K39" s="26"/>
       <c r="L39" s="26"/>
@@ -9953,17 +9962,15 @@
       <c r="O39" s="26"/>
       <c r="P39" s="26"/>
       <c r="Q39" s="27"/>
-      <c r="R39" s="25"/>
+      <c r="R39" s="25">
+        <v>4</v>
+      </c>
       <c r="S39" s="26"/>
-      <c r="T39" s="26">
-        <v>12</v>
-      </c>
+      <c r="T39" s="26"/>
       <c r="U39" s="26"/>
       <c r="V39" s="26"/>
       <c r="W39" s="26"/>
-      <c r="X39" s="26">
-        <v>12</v>
-      </c>
+      <c r="X39" s="26"/>
       <c r="Y39" s="26"/>
       <c r="Z39" s="26"/>
       <c r="AA39" s="27"/>
@@ -9982,7 +9989,7 @@
     </row>
     <row r="40" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A40" s="19" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="B40" s="25"/>
       <c r="C40" s="26"/>
@@ -10000,17 +10007,17 @@
       <c r="O40" s="26"/>
       <c r="P40" s="26"/>
       <c r="Q40" s="27"/>
-      <c r="R40" s="25">
-        <v>8</v>
-      </c>
-      <c r="S40" s="26">
+      <c r="R40" s="25"/>
+      <c r="S40" s="26"/>
+      <c r="T40" s="26">
         <v>12</v>
       </c>
-      <c r="T40" s="26"/>
       <c r="U40" s="26"/>
       <c r="V40" s="26"/>
       <c r="W40" s="26"/>
-      <c r="X40" s="26"/>
+      <c r="X40" s="26">
+        <v>12</v>
+      </c>
       <c r="Y40" s="26"/>
       <c r="Z40" s="26"/>
       <c r="AA40" s="27"/>
@@ -10029,23 +10036,15 @@
     </row>
     <row r="41" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A41" s="19" t="s">
-        <v>334</v>
-      </c>
-      <c r="B41" s="25">
-        <v>4</v>
-      </c>
-      <c r="C41" s="26">
-        <v>4</v>
-      </c>
-      <c r="D41" s="26">
-        <v>3</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="B41" s="25"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
       <c r="E41" s="26"/>
       <c r="F41" s="26"/>
       <c r="G41" s="26"/>
-      <c r="H41" s="27">
-        <v>8</v>
-      </c>
+      <c r="H41" s="27"/>
       <c r="I41" s="25"/>
       <c r="J41" s="26"/>
       <c r="K41" s="26"/>
@@ -10055,8 +10054,12 @@
       <c r="O41" s="26"/>
       <c r="P41" s="26"/>
       <c r="Q41" s="27"/>
-      <c r="R41" s="25"/>
-      <c r="S41" s="26"/>
+      <c r="R41" s="25">
+        <v>8</v>
+      </c>
+      <c r="S41" s="26">
+        <v>12</v>
+      </c>
       <c r="T41" s="26"/>
       <c r="U41" s="26"/>
       <c r="V41" s="26"/>
@@ -10080,21 +10083,23 @@
     </row>
     <row r="42" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A42" s="19" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B42" s="25">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C42" s="26">
+        <v>4</v>
+      </c>
+      <c r="D42" s="26">
         <v>3</v>
       </c>
-      <c r="D42" s="26"/>
       <c r="E42" s="26"/>
       <c r="F42" s="26"/>
-      <c r="G42" s="26">
-        <v>10</v>
-      </c>
-      <c r="H42" s="27"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="27">
+        <v>8</v>
+      </c>
       <c r="I42" s="25"/>
       <c r="J42" s="26"/>
       <c r="K42" s="26"/>
@@ -10104,9 +10109,7 @@
       <c r="O42" s="26"/>
       <c r="P42" s="26"/>
       <c r="Q42" s="27"/>
-      <c r="R42" s="25">
-        <v>10</v>
-      </c>
+      <c r="R42" s="25"/>
       <c r="S42" s="26"/>
       <c r="T42" s="26"/>
       <c r="U42" s="26"/>
@@ -10131,14 +10134,20 @@
     </row>
     <row r="43" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A43" s="19" t="s">
-        <v>348</v>
-      </c>
-      <c r="B43" s="25"/>
-      <c r="C43" s="26"/>
+        <v>341</v>
+      </c>
+      <c r="B43" s="25">
+        <v>6</v>
+      </c>
+      <c r="C43" s="26">
+        <v>3</v>
+      </c>
       <c r="D43" s="26"/>
       <c r="E43" s="26"/>
       <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
+      <c r="G43" s="26">
+        <v>10</v>
+      </c>
       <c r="H43" s="27"/>
       <c r="I43" s="25"/>
       <c r="J43" s="26"/>
@@ -10149,17 +10158,15 @@
       <c r="O43" s="26"/>
       <c r="P43" s="26"/>
       <c r="Q43" s="27"/>
-      <c r="R43" s="25"/>
+      <c r="R43" s="25">
+        <v>10</v>
+      </c>
       <c r="S43" s="26"/>
       <c r="T43" s="26"/>
-      <c r="U43" s="26">
-        <v>25</v>
-      </c>
+      <c r="U43" s="26"/>
       <c r="V43" s="26"/>
       <c r="W43" s="26"/>
-      <c r="X43" s="26">
-        <v>2</v>
-      </c>
+      <c r="X43" s="26"/>
       <c r="Y43" s="26"/>
       <c r="Z43" s="26"/>
       <c r="AA43" s="27"/>
@@ -10178,7 +10185,7 @@
     </row>
     <row r="44" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A44" s="19" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="B44" s="25"/>
       <c r="C44" s="26"/>
@@ -10198,13 +10205,15 @@
       <c r="Q44" s="27"/>
       <c r="R44" s="25"/>
       <c r="S44" s="26"/>
-      <c r="T44" s="26">
-        <v>20</v>
-      </c>
-      <c r="U44" s="26"/>
+      <c r="T44" s="26"/>
+      <c r="U44" s="26">
+        <v>25</v>
+      </c>
       <c r="V44" s="26"/>
       <c r="W44" s="26"/>
-      <c r="X44" s="26"/>
+      <c r="X44" s="26">
+        <v>2</v>
+      </c>
       <c r="Y44" s="26"/>
       <c r="Z44" s="26"/>
       <c r="AA44" s="27"/>
@@ -10223,7 +10232,7 @@
     </row>
     <row r="45" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A45" s="19" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="B45" s="25"/>
       <c r="C45" s="26"/>
@@ -10241,17 +10250,15 @@
       <c r="O45" s="26"/>
       <c r="P45" s="26"/>
       <c r="Q45" s="27"/>
-      <c r="R45" s="25">
+      <c r="R45" s="25"/>
+      <c r="S45" s="26"/>
+      <c r="T45" s="26">
         <v>20</v>
       </c>
-      <c r="S45" s="26"/>
-      <c r="T45" s="26"/>
       <c r="U45" s="26"/>
       <c r="V45" s="26"/>
       <c r="W45" s="26"/>
-      <c r="X45" s="26">
-        <v>2</v>
-      </c>
+      <c r="X45" s="26"/>
       <c r="Y45" s="26"/>
       <c r="Z45" s="26"/>
       <c r="AA45" s="27"/>
@@ -10270,17 +10277,11 @@
     </row>
     <row r="46" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A46" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="B46" s="25">
-        <v>10</v>
-      </c>
-      <c r="C46" s="26">
-        <v>10</v>
-      </c>
-      <c r="D46" s="26">
-        <v>5</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="B46" s="25"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
       <c r="E46" s="26"/>
       <c r="F46" s="26"/>
       <c r="G46" s="26"/>
@@ -10294,13 +10295,17 @@
       <c r="O46" s="26"/>
       <c r="P46" s="26"/>
       <c r="Q46" s="27"/>
-      <c r="R46" s="25"/>
+      <c r="R46" s="25">
+        <v>20</v>
+      </c>
       <c r="S46" s="26"/>
       <c r="T46" s="26"/>
       <c r="U46" s="26"/>
       <c r="V46" s="26"/>
       <c r="W46" s="26"/>
-      <c r="X46" s="26"/>
+      <c r="X46" s="26">
+        <v>2</v>
+      </c>
       <c r="Y46" s="26"/>
       <c r="Z46" s="26"/>
       <c r="AA46" s="27"/>
@@ -10319,21 +10324,21 @@
     </row>
     <row r="47" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A47" s="19" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="B47" s="25">
-        <v>4</v>
-      </c>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26">
+        <v>10</v>
+      </c>
+      <c r="C47" s="26">
+        <v>10</v>
+      </c>
+      <c r="D47" s="26">
         <v>5</v>
       </c>
+      <c r="E47" s="26"/>
       <c r="F47" s="26"/>
       <c r="G47" s="26"/>
-      <c r="H47" s="27">
-        <v>10</v>
-      </c>
+      <c r="H47" s="27"/>
       <c r="I47" s="25"/>
       <c r="J47" s="26"/>
       <c r="K47" s="26"/>
@@ -10349,9 +10354,7 @@
       <c r="U47" s="26"/>
       <c r="V47" s="26"/>
       <c r="W47" s="26"/>
-      <c r="X47" s="26">
-        <v>1</v>
-      </c>
+      <c r="X47" s="26"/>
       <c r="Y47" s="26"/>
       <c r="Z47" s="26"/>
       <c r="AA47" s="27"/>
@@ -10370,39 +10373,39 @@
     </row>
     <row r="48" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A48" s="19" t="s">
-        <v>384</v>
-      </c>
-      <c r="B48" s="25"/>
+        <v>377</v>
+      </c>
+      <c r="B48" s="25">
+        <v>4</v>
+      </c>
       <c r="C48" s="26"/>
       <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
+      <c r="E48" s="26">
+        <v>5</v>
+      </c>
       <c r="F48" s="26"/>
       <c r="G48" s="26"/>
-      <c r="H48" s="27"/>
+      <c r="H48" s="27">
+        <v>10</v>
+      </c>
       <c r="I48" s="25"/>
       <c r="J48" s="26"/>
       <c r="K48" s="26"/>
       <c r="L48" s="26"/>
       <c r="M48" s="27"/>
       <c r="N48" s="25"/>
-      <c r="O48" s="26">
-        <v>20</v>
-      </c>
+      <c r="O48" s="26"/>
       <c r="P48" s="26"/>
       <c r="Q48" s="27"/>
       <c r="R48" s="25"/>
-      <c r="S48" s="26">
-        <v>8</v>
-      </c>
-      <c r="T48" s="26">
-        <v>15</v>
-      </c>
+      <c r="S48" s="26"/>
+      <c r="T48" s="26"/>
       <c r="U48" s="26"/>
       <c r="V48" s="26"/>
-      <c r="W48" s="26">
-        <v>5</v>
-      </c>
-      <c r="X48" s="26"/>
+      <c r="W48" s="26"/>
+      <c r="X48" s="26">
+        <v>1</v>
+      </c>
       <c r="Y48" s="26"/>
       <c r="Z48" s="26"/>
       <c r="AA48" s="27"/>
@@ -10421,44 +10424,38 @@
     </row>
     <row r="49" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A49" s="19" t="s">
-        <v>391</v>
-      </c>
-      <c r="B49" s="25">
-        <v>25</v>
-      </c>
-      <c r="C49" s="26">
-        <v>10</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="B49" s="25"/>
+      <c r="C49" s="26"/>
       <c r="D49" s="26"/>
       <c r="E49" s="26"/>
       <c r="F49" s="26"/>
       <c r="G49" s="26"/>
-      <c r="H49" s="27">
-        <v>10</v>
-      </c>
-      <c r="I49" s="25">
-        <v>12</v>
-      </c>
+      <c r="H49" s="27"/>
+      <c r="I49" s="25"/>
       <c r="J49" s="26"/>
       <c r="K49" s="26"/>
       <c r="L49" s="26"/>
-      <c r="M49" s="27">
-        <v>25</v>
-      </c>
+      <c r="M49" s="27"/>
       <c r="N49" s="25"/>
       <c r="O49" s="26">
-        <v>10</v>
-      </c>
-      <c r="P49" s="26">
-        <v>10</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="P49" s="26"/>
       <c r="Q49" s="27"/>
       <c r="R49" s="25"/>
-      <c r="S49" s="26"/>
-      <c r="T49" s="26"/>
+      <c r="S49" s="26">
+        <v>8</v>
+      </c>
+      <c r="T49" s="26">
+        <v>15</v>
+      </c>
       <c r="U49" s="26"/>
       <c r="V49" s="26"/>
-      <c r="W49" s="26"/>
+      <c r="W49" s="26">
+        <v>5</v>
+      </c>
       <c r="X49" s="26"/>
       <c r="Y49" s="26"/>
       <c r="Z49" s="26"/>
@@ -10478,30 +10475,40 @@
     </row>
     <row r="50" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A50" s="19" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="B50" s="25">
-        <v>5</v>
-      </c>
-      <c r="C50" s="26"/>
+        <v>25</v>
+      </c>
+      <c r="C50" s="26">
+        <v>10</v>
+      </c>
       <c r="D50" s="26"/>
       <c r="E50" s="26"/>
       <c r="F50" s="26"/>
       <c r="G50" s="26"/>
-      <c r="H50" s="27"/>
-      <c r="I50" s="25"/>
+      <c r="H50" s="27">
+        <v>10</v>
+      </c>
+      <c r="I50" s="25">
+        <v>12</v>
+      </c>
       <c r="J50" s="26"/>
       <c r="K50" s="26"/>
       <c r="L50" s="26"/>
-      <c r="M50" s="27"/>
+      <c r="M50" s="27">
+        <v>25</v>
+      </c>
       <c r="N50" s="25"/>
-      <c r="O50" s="26"/>
-      <c r="P50" s="26"/>
+      <c r="O50" s="26">
+        <v>10</v>
+      </c>
+      <c r="P50" s="26">
+        <v>10</v>
+      </c>
       <c r="Q50" s="27"/>
       <c r="R50" s="25"/>
-      <c r="S50" s="26">
-        <v>10</v>
-      </c>
+      <c r="S50" s="26"/>
       <c r="T50" s="26"/>
       <c r="U50" s="26"/>
       <c r="V50" s="26"/>
@@ -10525,18 +10532,18 @@
     </row>
     <row r="51" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A51" s="19" t="s">
-        <v>405</v>
-      </c>
-      <c r="B51" s="25"/>
+        <v>398</v>
+      </c>
+      <c r="B51" s="25">
+        <v>5</v>
+      </c>
       <c r="C51" s="26"/>
       <c r="D51" s="26"/>
       <c r="E51" s="26"/>
       <c r="F51" s="26"/>
       <c r="G51" s="26"/>
       <c r="H51" s="27"/>
-      <c r="I51" s="25">
-        <v>15</v>
-      </c>
+      <c r="I51" s="25"/>
       <c r="J51" s="26"/>
       <c r="K51" s="26"/>
       <c r="L51" s="26"/>
@@ -10546,7 +10553,9 @@
       <c r="P51" s="26"/>
       <c r="Q51" s="27"/>
       <c r="R51" s="25"/>
-      <c r="S51" s="26"/>
+      <c r="S51" s="26">
+        <v>10</v>
+      </c>
       <c r="T51" s="26"/>
       <c r="U51" s="26"/>
       <c r="V51" s="26"/>
@@ -10570,22 +10579,18 @@
     </row>
     <row r="52" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A52" s="19" t="s">
-        <v>412</v>
-      </c>
-      <c r="B52" s="25">
-        <v>10</v>
-      </c>
-      <c r="C52" s="26">
-        <v>8</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="B52" s="25"/>
+      <c r="C52" s="26"/>
       <c r="D52" s="26"/>
       <c r="E52" s="26"/>
       <c r="F52" s="26"/>
-      <c r="G52" s="26">
-        <v>12</v>
-      </c>
+      <c r="G52" s="26"/>
       <c r="H52" s="27"/>
-      <c r="I52" s="25"/>
+      <c r="I52" s="25">
+        <v>15</v>
+      </c>
       <c r="J52" s="26"/>
       <c r="K52" s="26"/>
       <c r="L52" s="26"/>
@@ -10619,35 +10624,31 @@
     </row>
     <row r="53" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A53" s="19" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="B53" s="25">
         <v>10</v>
       </c>
-      <c r="C53" s="26"/>
+      <c r="C53" s="26">
+        <v>8</v>
+      </c>
       <c r="D53" s="26"/>
       <c r="E53" s="26"/>
       <c r="F53" s="26"/>
-      <c r="G53" s="26"/>
+      <c r="G53" s="26">
+        <v>12</v>
+      </c>
       <c r="H53" s="27"/>
-      <c r="I53" s="25">
-        <v>10</v>
-      </c>
+      <c r="I53" s="25"/>
       <c r="J53" s="26"/>
       <c r="K53" s="26"/>
-      <c r="L53" s="26">
-        <v>4</v>
-      </c>
-      <c r="M53" s="27">
-        <v>5</v>
-      </c>
+      <c r="L53" s="26"/>
+      <c r="M53" s="27"/>
       <c r="N53" s="25"/>
       <c r="O53" s="26"/>
       <c r="P53" s="26"/>
       <c r="Q53" s="27"/>
-      <c r="R53" s="25">
-        <v>5</v>
-      </c>
+      <c r="R53" s="25"/>
       <c r="S53" s="26"/>
       <c r="T53" s="26"/>
       <c r="U53" s="26"/>
@@ -10672,37 +10673,41 @@
     </row>
     <row r="54" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A54" s="19" t="s">
-        <v>427</v>
-      </c>
-      <c r="B54" s="25"/>
+        <v>419</v>
+      </c>
+      <c r="B54" s="25">
+        <v>10</v>
+      </c>
       <c r="C54" s="26"/>
       <c r="D54" s="26"/>
       <c r="E54" s="26"/>
       <c r="F54" s="26"/>
       <c r="G54" s="26"/>
       <c r="H54" s="27"/>
-      <c r="I54" s="25"/>
+      <c r="I54" s="25">
+        <v>10</v>
+      </c>
       <c r="J54" s="26"/>
       <c r="K54" s="26"/>
-      <c r="L54" s="26"/>
+      <c r="L54" s="26">
+        <v>4</v>
+      </c>
       <c r="M54" s="27">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N54" s="25"/>
       <c r="O54" s="26"/>
       <c r="P54" s="26"/>
       <c r="Q54" s="27"/>
-      <c r="R54" s="25"/>
+      <c r="R54" s="25">
+        <v>5</v>
+      </c>
       <c r="S54" s="26"/>
       <c r="T54" s="26"/>
-      <c r="U54" s="26">
-        <v>15</v>
-      </c>
+      <c r="U54" s="26"/>
       <c r="V54" s="26"/>
       <c r="W54" s="26"/>
-      <c r="X54" s="26">
-        <v>4</v>
-      </c>
+      <c r="X54" s="26"/>
       <c r="Y54" s="26"/>
       <c r="Z54" s="26"/>
       <c r="AA54" s="27"/>
@@ -10721,12 +10726,10 @@
     </row>
     <row r="55" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A55" s="19" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="B55" s="25"/>
-      <c r="C55" s="26">
-        <v>15</v>
-      </c>
+      <c r="C55" s="26"/>
       <c r="D55" s="26"/>
       <c r="E55" s="26"/>
       <c r="F55" s="26"/>
@@ -10736,7 +10739,9 @@
       <c r="J55" s="26"/>
       <c r="K55" s="26"/>
       <c r="L55" s="26"/>
-      <c r="M55" s="27"/>
+      <c r="M55" s="27">
+        <v>2</v>
+      </c>
       <c r="N55" s="25"/>
       <c r="O55" s="26"/>
       <c r="P55" s="26"/>
@@ -10744,11 +10749,13 @@
       <c r="R55" s="25"/>
       <c r="S55" s="26"/>
       <c r="T55" s="26"/>
-      <c r="U55" s="26"/>
+      <c r="U55" s="26">
+        <v>15</v>
+      </c>
       <c r="V55" s="26"/>
       <c r="W55" s="26"/>
       <c r="X55" s="26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y55" s="26"/>
       <c r="Z55" s="26"/>
@@ -10768,10 +10775,12 @@
     </row>
     <row r="56" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A56" s="19" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="B56" s="25"/>
-      <c r="C56" s="26"/>
+      <c r="C56" s="26">
+        <v>15</v>
+      </c>
       <c r="D56" s="26"/>
       <c r="E56" s="26"/>
       <c r="F56" s="26"/>
@@ -10781,9 +10790,7 @@
       <c r="J56" s="26"/>
       <c r="K56" s="26"/>
       <c r="L56" s="26"/>
-      <c r="M56" s="27">
-        <v>15</v>
-      </c>
+      <c r="M56" s="27"/>
       <c r="N56" s="25"/>
       <c r="O56" s="26"/>
       <c r="P56" s="26"/>
@@ -10794,7 +10801,9 @@
       <c r="U56" s="26"/>
       <c r="V56" s="26"/>
       <c r="W56" s="26"/>
-      <c r="X56" s="26"/>
+      <c r="X56" s="26">
+        <v>2</v>
+      </c>
       <c r="Y56" s="26"/>
       <c r="Z56" s="26"/>
       <c r="AA56" s="27"/>
@@ -10809,13 +10818,11 @@
       <c r="AJ56" s="27"/>
       <c r="AK56" s="25"/>
       <c r="AL56" s="26"/>
-      <c r="AM56" s="27">
-        <v>5</v>
-      </c>
+      <c r="AM56" s="27"/>
     </row>
     <row r="57" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A57" s="19" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="B57" s="25"/>
       <c r="C57" s="26"/>
@@ -10828,24 +10835,20 @@
       <c r="J57" s="26"/>
       <c r="K57" s="26"/>
       <c r="L57" s="26"/>
-      <c r="M57" s="27"/>
+      <c r="M57" s="27">
+        <v>15</v>
+      </c>
       <c r="N57" s="25"/>
       <c r="O57" s="26"/>
       <c r="P57" s="26"/>
-      <c r="Q57" s="27">
-        <v>10</v>
-      </c>
-      <c r="R57" s="25">
-        <v>10</v>
-      </c>
+      <c r="Q57" s="27"/>
+      <c r="R57" s="25"/>
       <c r="S57" s="26"/>
       <c r="T57" s="26"/>
       <c r="U57" s="26"/>
       <c r="V57" s="26"/>
       <c r="W57" s="26"/>
-      <c r="X57" s="26">
-        <v>2</v>
-      </c>
+      <c r="X57" s="26"/>
       <c r="Y57" s="26"/>
       <c r="Z57" s="26"/>
       <c r="AA57" s="27"/>
@@ -10860,16 +10863,16 @@
       <c r="AJ57" s="27"/>
       <c r="AK57" s="25"/>
       <c r="AL57" s="26"/>
-      <c r="AM57" s="27"/>
+      <c r="AM57" s="27">
+        <v>5</v>
+      </c>
     </row>
     <row r="58" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A58" s="19" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="B58" s="25"/>
-      <c r="C58" s="26">
-        <v>10</v>
-      </c>
+      <c r="C58" s="26"/>
       <c r="D58" s="26"/>
       <c r="E58" s="26"/>
       <c r="F58" s="26"/>
@@ -10883,23 +10886,23 @@
       <c r="N58" s="25"/>
       <c r="O58" s="26"/>
       <c r="P58" s="26"/>
-      <c r="Q58" s="27"/>
+      <c r="Q58" s="27">
+        <v>10</v>
+      </c>
       <c r="R58" s="25">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S58" s="26"/>
-      <c r="T58" s="26">
-        <v>5</v>
-      </c>
+      <c r="T58" s="26"/>
       <c r="U58" s="26"/>
       <c r="V58" s="26"/>
       <c r="W58" s="26"/>
-      <c r="X58" s="26"/>
+      <c r="X58" s="26">
+        <v>2</v>
+      </c>
       <c r="Y58" s="26"/>
       <c r="Z58" s="26"/>
-      <c r="AA58" s="27">
-        <v>5</v>
-      </c>
+      <c r="AA58" s="27"/>
       <c r="AB58" s="25"/>
       <c r="AC58" s="26"/>
       <c r="AD58" s="26"/>
@@ -10915,20 +10918,18 @@
     </row>
     <row r="59" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A59" s="19" t="s">
-        <v>462</v>
-      </c>
-      <c r="B59" s="25">
-        <v>5</v>
-      </c>
-      <c r="C59" s="26"/>
+        <v>455</v>
+      </c>
+      <c r="B59" s="25"/>
+      <c r="C59" s="26">
+        <v>10</v>
+      </c>
       <c r="D59" s="26"/>
       <c r="E59" s="26"/>
       <c r="F59" s="26"/>
       <c r="G59" s="26"/>
       <c r="H59" s="27"/>
-      <c r="I59" s="25">
-        <v>10</v>
-      </c>
+      <c r="I59" s="25"/>
       <c r="J59" s="26"/>
       <c r="K59" s="26"/>
       <c r="L59" s="26"/>
@@ -10937,16 +10938,22 @@
       <c r="O59" s="26"/>
       <c r="P59" s="26"/>
       <c r="Q59" s="27"/>
-      <c r="R59" s="25"/>
+      <c r="R59" s="25">
+        <v>5</v>
+      </c>
       <c r="S59" s="26"/>
-      <c r="T59" s="26"/>
+      <c r="T59" s="26">
+        <v>5</v>
+      </c>
       <c r="U59" s="26"/>
       <c r="V59" s="26"/>
       <c r="W59" s="26"/>
       <c r="X59" s="26"/>
       <c r="Y59" s="26"/>
       <c r="Z59" s="26"/>
-      <c r="AA59" s="27"/>
+      <c r="AA59" s="27">
+        <v>5</v>
+      </c>
       <c r="AB59" s="25"/>
       <c r="AC59" s="26"/>
       <c r="AD59" s="26"/>
@@ -10957,27 +10964,25 @@
       <c r="AI59" s="26"/>
       <c r="AJ59" s="27"/>
       <c r="AK59" s="25"/>
-      <c r="AL59" s="26">
-        <v>5</v>
-      </c>
+      <c r="AL59" s="26"/>
       <c r="AM59" s="27"/>
     </row>
     <row r="60" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A60" s="19" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="B60" s="25">
-        <v>10</v>
-      </c>
-      <c r="C60" s="26">
-        <v>10</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C60" s="26"/>
       <c r="D60" s="26"/>
       <c r="E60" s="26"/>
       <c r="F60" s="26"/>
       <c r="G60" s="26"/>
       <c r="H60" s="27"/>
-      <c r="I60" s="25"/>
+      <c r="I60" s="25">
+        <v>10</v>
+      </c>
       <c r="J60" s="26"/>
       <c r="K60" s="26"/>
       <c r="L60" s="26"/>
@@ -11006,29 +11011,27 @@
       <c r="AI60" s="26"/>
       <c r="AJ60" s="27"/>
       <c r="AK60" s="25"/>
-      <c r="AL60" s="26"/>
-      <c r="AM60" s="27">
+      <c r="AL60" s="26">
         <v>5</v>
       </c>
+      <c r="AM60" s="27"/>
     </row>
     <row r="61" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A61" s="19" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="B61" s="25">
-        <v>15</v>
-      </c>
-      <c r="C61" s="26"/>
+        <v>10</v>
+      </c>
+      <c r="C61" s="26">
+        <v>10</v>
+      </c>
       <c r="D61" s="26"/>
       <c r="E61" s="26"/>
       <c r="F61" s="26"/>
       <c r="G61" s="26"/>
-      <c r="H61" s="27">
-        <v>5</v>
-      </c>
-      <c r="I61" s="25">
-        <v>5</v>
-      </c>
+      <c r="H61" s="27"/>
+      <c r="I61" s="25"/>
       <c r="J61" s="26"/>
       <c r="K61" s="26"/>
       <c r="L61" s="26"/>
@@ -11058,37 +11061,39 @@
       <c r="AJ61" s="27"/>
       <c r="AK61" s="25"/>
       <c r="AL61" s="26"/>
-      <c r="AM61" s="27"/>
+      <c r="AM61" s="27">
+        <v>5</v>
+      </c>
     </row>
     <row r="62" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A62" s="19" t="s">
-        <v>483</v>
-      </c>
-      <c r="B62" s="25"/>
+        <v>476</v>
+      </c>
+      <c r="B62" s="25">
+        <v>15</v>
+      </c>
       <c r="C62" s="26"/>
       <c r="D62" s="26"/>
       <c r="E62" s="26"/>
       <c r="F62" s="26"/>
       <c r="G62" s="26"/>
-      <c r="H62" s="27"/>
-      <c r="I62" s="25"/>
+      <c r="H62" s="27">
+        <v>5</v>
+      </c>
+      <c r="I62" s="25">
+        <v>5</v>
+      </c>
       <c r="J62" s="26"/>
       <c r="K62" s="26"/>
       <c r="L62" s="26"/>
       <c r="M62" s="27"/>
       <c r="N62" s="25"/>
-      <c r="O62" s="26">
-        <v>10</v>
-      </c>
+      <c r="O62" s="26"/>
       <c r="P62" s="26"/>
       <c r="Q62" s="27"/>
       <c r="R62" s="25"/>
-      <c r="S62" s="26">
-        <v>2</v>
-      </c>
-      <c r="T62" s="26">
-        <v>2</v>
-      </c>
+      <c r="S62" s="26"/>
+      <c r="T62" s="26"/>
       <c r="U62" s="26"/>
       <c r="V62" s="26"/>
       <c r="W62" s="26"/>
@@ -11111,11 +11116,9 @@
     </row>
     <row r="63" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A63" s="19" t="s">
-        <v>491</v>
-      </c>
-      <c r="B63" s="25">
-        <v>10</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="B63" s="25"/>
       <c r="C63" s="26"/>
       <c r="D63" s="26"/>
       <c r="E63" s="26"/>
@@ -11128,12 +11131,18 @@
       <c r="L63" s="26"/>
       <c r="M63" s="27"/>
       <c r="N63" s="25"/>
-      <c r="O63" s="26"/>
+      <c r="O63" s="26">
+        <v>10</v>
+      </c>
       <c r="P63" s="26"/>
       <c r="Q63" s="27"/>
       <c r="R63" s="25"/>
-      <c r="S63" s="26"/>
-      <c r="T63" s="26"/>
+      <c r="S63" s="26">
+        <v>2</v>
+      </c>
+      <c r="T63" s="26">
+        <v>2</v>
+      </c>
       <c r="U63" s="26"/>
       <c r="V63" s="26"/>
       <c r="W63" s="26"/>
@@ -11142,9 +11151,7 @@
       <c r="Z63" s="26"/>
       <c r="AA63" s="27"/>
       <c r="AB63" s="25"/>
-      <c r="AC63" s="26">
-        <v>25</v>
-      </c>
+      <c r="AC63" s="26"/>
       <c r="AD63" s="26"/>
       <c r="AE63" s="26"/>
       <c r="AF63" s="27"/>
@@ -11158,10 +11165,10 @@
     </row>
     <row r="64" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A64" s="19" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="B64" s="25">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C64" s="26"/>
       <c r="D64" s="26"/>
@@ -11173,9 +11180,7 @@
       <c r="J64" s="26"/>
       <c r="K64" s="26"/>
       <c r="L64" s="26"/>
-      <c r="M64" s="27">
-        <v>15</v>
-      </c>
+      <c r="M64" s="27"/>
       <c r="N64" s="25"/>
       <c r="O64" s="26"/>
       <c r="P64" s="26"/>
@@ -11191,7 +11196,9 @@
       <c r="Z64" s="26"/>
       <c r="AA64" s="27"/>
       <c r="AB64" s="25"/>
-      <c r="AC64" s="26"/>
+      <c r="AC64" s="26">
+        <v>25</v>
+      </c>
       <c r="AD64" s="26"/>
       <c r="AE64" s="26"/>
       <c r="AF64" s="27"/>
@@ -11201,32 +11208,28 @@
       <c r="AJ64" s="27"/>
       <c r="AK64" s="25"/>
       <c r="AL64" s="26"/>
-      <c r="AM64" s="27">
-        <v>5</v>
-      </c>
+      <c r="AM64" s="27"/>
     </row>
     <row r="65" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A65" s="19" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="B65" s="25">
-        <v>10</v>
-      </c>
-      <c r="C65" s="26">
         <v>5</v>
       </c>
+      <c r="C65" s="26"/>
       <c r="D65" s="26"/>
       <c r="E65" s="26"/>
       <c r="F65" s="26"/>
       <c r="G65" s="26"/>
-      <c r="H65" s="27">
-        <v>10</v>
-      </c>
+      <c r="H65" s="27"/>
       <c r="I65" s="25"/>
       <c r="J65" s="26"/>
       <c r="K65" s="26"/>
       <c r="L65" s="26"/>
-      <c r="M65" s="27"/>
+      <c r="M65" s="27">
+        <v>15</v>
+      </c>
       <c r="N65" s="25"/>
       <c r="O65" s="26"/>
       <c r="P65" s="26"/>
@@ -11252,19 +11255,27 @@
       <c r="AJ65" s="27"/>
       <c r="AK65" s="25"/>
       <c r="AL65" s="26"/>
-      <c r="AM65" s="27"/>
+      <c r="AM65" s="27">
+        <v>5</v>
+      </c>
     </row>
     <row r="66" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A66" s="19" t="s">
-        <v>512</v>
-      </c>
-      <c r="B66" s="25"/>
-      <c r="C66" s="26"/>
+        <v>505</v>
+      </c>
+      <c r="B66" s="25">
+        <v>10</v>
+      </c>
+      <c r="C66" s="26">
+        <v>5</v>
+      </c>
       <c r="D66" s="26"/>
       <c r="E66" s="26"/>
       <c r="F66" s="26"/>
       <c r="G66" s="26"/>
-      <c r="H66" s="27"/>
+      <c r="H66" s="27">
+        <v>10</v>
+      </c>
       <c r="I66" s="25"/>
       <c r="J66" s="26"/>
       <c r="K66" s="26"/>
@@ -11274,9 +11285,7 @@
       <c r="O66" s="26"/>
       <c r="P66" s="26"/>
       <c r="Q66" s="27"/>
-      <c r="R66" s="25">
-        <v>10</v>
-      </c>
+      <c r="R66" s="25"/>
       <c r="S66" s="26"/>
       <c r="T66" s="26"/>
       <c r="U66" s="26"/>
@@ -11301,11 +11310,9 @@
     </row>
     <row r="67" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A67" s="19" t="s">
-        <v>519</v>
-      </c>
-      <c r="B67" s="25">
-        <v>5</v>
-      </c>
+        <v>512</v>
+      </c>
+      <c r="B67" s="25"/>
       <c r="C67" s="26"/>
       <c r="D67" s="26"/>
       <c r="E67" s="26"/>
@@ -11334,9 +11341,7 @@
       <c r="Z67" s="26"/>
       <c r="AA67" s="27"/>
       <c r="AB67" s="25"/>
-      <c r="AC67" s="26">
-        <v>30</v>
-      </c>
+      <c r="AC67" s="26"/>
       <c r="AD67" s="26"/>
       <c r="AE67" s="26"/>
       <c r="AF67" s="27"/>
@@ -11350,31 +11355,29 @@
     </row>
     <row r="68" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A68" s="19" t="s">
-        <v>526</v>
-      </c>
-      <c r="B68" s="25"/>
+        <v>519</v>
+      </c>
+      <c r="B68" s="25">
+        <v>5</v>
+      </c>
       <c r="C68" s="26"/>
       <c r="D68" s="26"/>
       <c r="E68" s="26"/>
       <c r="F68" s="26"/>
-      <c r="G68" s="26">
-        <v>10</v>
-      </c>
-      <c r="H68" s="27">
-        <v>5</v>
-      </c>
+      <c r="G68" s="26"/>
+      <c r="H68" s="27"/>
       <c r="I68" s="25"/>
       <c r="J68" s="26"/>
       <c r="K68" s="26"/>
       <c r="L68" s="26"/>
-      <c r="M68" s="27">
-        <v>5</v>
-      </c>
+      <c r="M68" s="27"/>
       <c r="N68" s="25"/>
       <c r="O68" s="26"/>
       <c r="P68" s="26"/>
       <c r="Q68" s="27"/>
-      <c r="R68" s="25"/>
+      <c r="R68" s="25">
+        <v>10</v>
+      </c>
       <c r="S68" s="26"/>
       <c r="T68" s="26"/>
       <c r="U68" s="26"/>
@@ -11383,11 +11386,11 @@
       <c r="X68" s="26"/>
       <c r="Y68" s="26"/>
       <c r="Z68" s="26"/>
-      <c r="AA68" s="27">
+      <c r="AA68" s="27"/>
+      <c r="AB68" s="25"/>
+      <c r="AC68" s="26">
         <v>30</v>
       </c>
-      <c r="AB68" s="25"/>
-      <c r="AC68" s="26"/>
       <c r="AD68" s="26"/>
       <c r="AE68" s="26"/>
       <c r="AF68" s="27"/>
@@ -11401,18 +11404,20 @@
     </row>
     <row r="69" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A69" s="19" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="B69" s="25"/>
       <c r="C69" s="26"/>
       <c r="D69" s="26"/>
       <c r="E69" s="26"/>
       <c r="F69" s="26"/>
-      <c r="G69" s="26"/>
-      <c r="H69" s="27"/>
-      <c r="I69" s="25">
+      <c r="G69" s="26">
+        <v>10</v>
+      </c>
+      <c r="H69" s="27">
         <v>5</v>
       </c>
+      <c r="I69" s="25"/>
       <c r="J69" s="26"/>
       <c r="K69" s="26"/>
       <c r="L69" s="26"/>
@@ -11432,11 +11437,11 @@
       <c r="X69" s="26"/>
       <c r="Y69" s="26"/>
       <c r="Z69" s="26"/>
-      <c r="AA69" s="27"/>
+      <c r="AA69" s="27">
+        <v>30</v>
+      </c>
       <c r="AB69" s="25"/>
-      <c r="AC69" s="26">
-        <v>5</v>
-      </c>
+      <c r="AC69" s="26"/>
       <c r="AD69" s="26"/>
       <c r="AE69" s="26"/>
       <c r="AF69" s="27"/>
@@ -11450,22 +11455,24 @@
     </row>
     <row r="70" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A70" s="19" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="B70" s="25"/>
-      <c r="C70" s="26">
-        <v>5</v>
-      </c>
+      <c r="C70" s="26"/>
       <c r="D70" s="26"/>
       <c r="E70" s="26"/>
       <c r="F70" s="26"/>
       <c r="G70" s="26"/>
       <c r="H70" s="27"/>
-      <c r="I70" s="25"/>
+      <c r="I70" s="25">
+        <v>5</v>
+      </c>
       <c r="J70" s="26"/>
       <c r="K70" s="26"/>
       <c r="L70" s="26"/>
-      <c r="M70" s="27"/>
+      <c r="M70" s="27">
+        <v>5</v>
+      </c>
       <c r="N70" s="25"/>
       <c r="O70" s="26"/>
       <c r="P70" s="26"/>
@@ -11476,14 +11483,14 @@
       <c r="U70" s="26"/>
       <c r="V70" s="26"/>
       <c r="W70" s="26"/>
-      <c r="X70" s="26">
-        <v>5</v>
-      </c>
+      <c r="X70" s="26"/>
       <c r="Y70" s="26"/>
       <c r="Z70" s="26"/>
       <c r="AA70" s="27"/>
       <c r="AB70" s="25"/>
-      <c r="AC70" s="26"/>
+      <c r="AC70" s="26">
+        <v>5</v>
+      </c>
       <c r="AD70" s="26"/>
       <c r="AE70" s="26"/>
       <c r="AF70" s="27"/>
@@ -11497,19 +11504,17 @@
     </row>
     <row r="71" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A71" s="19" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="B71" s="25"/>
       <c r="C71" s="26">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D71" s="26"/>
       <c r="E71" s="26"/>
       <c r="F71" s="26"/>
       <c r="G71" s="26"/>
-      <c r="H71" s="27">
-        <v>10</v>
-      </c>
+      <c r="H71" s="27"/>
       <c r="I71" s="25"/>
       <c r="J71" s="26"/>
       <c r="K71" s="26"/>
@@ -11525,7 +11530,9 @@
       <c r="U71" s="26"/>
       <c r="V71" s="26"/>
       <c r="W71" s="26"/>
-      <c r="X71" s="26"/>
+      <c r="X71" s="26">
+        <v>5</v>
+      </c>
       <c r="Y71" s="26"/>
       <c r="Z71" s="26"/>
       <c r="AA71" s="27"/>
@@ -11544,15 +11551,19 @@
     </row>
     <row r="72" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A72" s="19" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="B72" s="25"/>
-      <c r="C72" s="26"/>
+      <c r="C72" s="26">
+        <v>10</v>
+      </c>
       <c r="D72" s="26"/>
       <c r="E72" s="26"/>
       <c r="F72" s="26"/>
       <c r="G72" s="26"/>
-      <c r="H72" s="27"/>
+      <c r="H72" s="27">
+        <v>10</v>
+      </c>
       <c r="I72" s="25"/>
       <c r="J72" s="26"/>
       <c r="K72" s="26"/>
@@ -11571,13 +11582,9 @@
       <c r="X72" s="26"/>
       <c r="Y72" s="26"/>
       <c r="Z72" s="26"/>
-      <c r="AA72" s="27">
-        <v>10</v>
-      </c>
+      <c r="AA72" s="27"/>
       <c r="AB72" s="25"/>
-      <c r="AC72" s="26">
-        <v>10</v>
-      </c>
+      <c r="AC72" s="26"/>
       <c r="AD72" s="26"/>
       <c r="AE72" s="26"/>
       <c r="AF72" s="27"/>
@@ -11591,7 +11598,7 @@
     </row>
     <row r="73" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A73" s="19" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="B73" s="25"/>
       <c r="C73" s="26"/>
@@ -11611,22 +11618,20 @@
       <c r="Q73" s="27"/>
       <c r="R73" s="25"/>
       <c r="S73" s="26"/>
-      <c r="T73" s="26">
-        <v>6</v>
-      </c>
+      <c r="T73" s="26"/>
       <c r="U73" s="26"/>
       <c r="V73" s="26"/>
       <c r="W73" s="26"/>
-      <c r="X73" s="26">
-        <v>2</v>
-      </c>
+      <c r="X73" s="26"/>
       <c r="Y73" s="26"/>
       <c r="Z73" s="26"/>
       <c r="AA73" s="27">
         <v>10</v>
       </c>
       <c r="AB73" s="25"/>
-      <c r="AC73" s="26"/>
+      <c r="AC73" s="26">
+        <v>10</v>
+      </c>
       <c r="AD73" s="26"/>
       <c r="AE73" s="26"/>
       <c r="AF73" s="27"/>
@@ -11640,7 +11645,7 @@
     </row>
     <row r="74" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A74" s="19" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="B74" s="25"/>
       <c r="C74" s="26"/>
@@ -11649,9 +11654,7 @@
       <c r="F74" s="26"/>
       <c r="G74" s="26"/>
       <c r="H74" s="27"/>
-      <c r="I74" s="25">
-        <v>4</v>
-      </c>
+      <c r="I74" s="25"/>
       <c r="J74" s="26"/>
       <c r="K74" s="26"/>
       <c r="L74" s="26"/>
@@ -11662,15 +11665,19 @@
       <c r="Q74" s="27"/>
       <c r="R74" s="25"/>
       <c r="S74" s="26"/>
-      <c r="T74" s="26"/>
+      <c r="T74" s="26">
+        <v>6</v>
+      </c>
       <c r="U74" s="26"/>
       <c r="V74" s="26"/>
       <c r="W74" s="26"/>
-      <c r="X74" s="26"/>
+      <c r="X74" s="26">
+        <v>2</v>
+      </c>
       <c r="Y74" s="26"/>
       <c r="Z74" s="26"/>
       <c r="AA74" s="27">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB74" s="25"/>
       <c r="AC74" s="26"/>
@@ -11687,26 +11694,22 @@
     </row>
     <row r="75" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A75" s="19" t="s">
-        <v>576</v>
-      </c>
-      <c r="B75" s="25">
-        <v>5</v>
-      </c>
+        <v>569</v>
+      </c>
+      <c r="B75" s="25"/>
       <c r="C75" s="26"/>
       <c r="D75" s="26"/>
       <c r="E75" s="26"/>
       <c r="F75" s="26"/>
       <c r="G75" s="26"/>
-      <c r="H75" s="27">
-        <v>5</v>
-      </c>
-      <c r="I75" s="25"/>
+      <c r="H75" s="27"/>
+      <c r="I75" s="25">
+        <v>4</v>
+      </c>
       <c r="J75" s="26"/>
       <c r="K75" s="26"/>
       <c r="L75" s="26"/>
-      <c r="M75" s="27">
-        <v>5</v>
-      </c>
+      <c r="M75" s="27"/>
       <c r="N75" s="25"/>
       <c r="O75" s="26"/>
       <c r="P75" s="26"/>
@@ -11720,7 +11723,9 @@
       <c r="X75" s="26"/>
       <c r="Y75" s="26"/>
       <c r="Z75" s="26"/>
-      <c r="AA75" s="27"/>
+      <c r="AA75" s="27">
+        <v>25</v>
+      </c>
       <c r="AB75" s="25"/>
       <c r="AC75" s="26"/>
       <c r="AD75" s="26"/>
@@ -11736,20 +11741,26 @@
     </row>
     <row r="76" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A76" s="19" t="s">
-        <v>583</v>
-      </c>
-      <c r="B76" s="25"/>
+        <v>576</v>
+      </c>
+      <c r="B76" s="25">
+        <v>5</v>
+      </c>
       <c r="C76" s="26"/>
       <c r="D76" s="26"/>
       <c r="E76" s="26"/>
       <c r="F76" s="26"/>
       <c r="G76" s="26"/>
-      <c r="H76" s="27"/>
+      <c r="H76" s="27">
+        <v>5</v>
+      </c>
       <c r="I76" s="25"/>
       <c r="J76" s="26"/>
       <c r="K76" s="26"/>
       <c r="L76" s="26"/>
-      <c r="M76" s="27"/>
+      <c r="M76" s="27">
+        <v>5</v>
+      </c>
       <c r="N76" s="25"/>
       <c r="O76" s="26"/>
       <c r="P76" s="26"/>
@@ -11757,9 +11768,7 @@
       <c r="R76" s="25"/>
       <c r="S76" s="26"/>
       <c r="T76" s="26"/>
-      <c r="U76" s="26">
-        <v>50</v>
-      </c>
+      <c r="U76" s="26"/>
       <c r="V76" s="26"/>
       <c r="W76" s="26"/>
       <c r="X76" s="26"/>
@@ -11781,7 +11790,7 @@
     </row>
     <row r="77" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A77" s="19" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="B77" s="25"/>
       <c r="C77" s="26"/>
@@ -11802,14 +11811,14 @@
       <c r="R77" s="25"/>
       <c r="S77" s="26"/>
       <c r="T77" s="26"/>
-      <c r="U77" s="26"/>
+      <c r="U77" s="26">
+        <v>50</v>
+      </c>
       <c r="V77" s="26"/>
       <c r="W77" s="26"/>
       <c r="X77" s="26"/>
       <c r="Y77" s="26"/>
-      <c r="Z77" s="26">
-        <v>50</v>
-      </c>
+      <c r="Z77" s="26"/>
       <c r="AA77" s="27"/>
       <c r="AB77" s="25"/>
       <c r="AC77" s="26"/>
@@ -11826,7 +11835,7 @@
     </row>
     <row r="78" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A78" s="19" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="B78" s="25"/>
       <c r="C78" s="26"/>
@@ -11852,10 +11861,10 @@
       <c r="W78" s="26"/>
       <c r="X78" s="26"/>
       <c r="Y78" s="26"/>
-      <c r="Z78" s="26"/>
-      <c r="AA78" s="27">
-        <v>20</v>
-      </c>
+      <c r="Z78" s="26">
+        <v>50</v>
+      </c>
+      <c r="AA78" s="27"/>
       <c r="AB78" s="25"/>
       <c r="AC78" s="26"/>
       <c r="AD78" s="26"/>
@@ -11871,11 +11880,9 @@
     </row>
     <row r="79" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A79" s="19" t="s">
-        <v>605</v>
-      </c>
-      <c r="B79" s="25">
-        <v>15</v>
-      </c>
+        <v>598</v>
+      </c>
+      <c r="B79" s="25"/>
       <c r="C79" s="26"/>
       <c r="D79" s="26"/>
       <c r="E79" s="26"/>
@@ -11900,11 +11907,11 @@
       <c r="X79" s="26"/>
       <c r="Y79" s="26"/>
       <c r="Z79" s="26"/>
-      <c r="AA79" s="27"/>
+      <c r="AA79" s="27">
+        <v>20</v>
+      </c>
       <c r="AB79" s="25"/>
-      <c r="AC79" s="26">
-        <v>5</v>
-      </c>
+      <c r="AC79" s="26"/>
       <c r="AD79" s="26"/>
       <c r="AE79" s="26"/>
       <c r="AF79" s="27"/>
@@ -11918,9 +11925,11 @@
     </row>
     <row r="80" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A80" s="19" t="s">
-        <v>612</v>
-      </c>
-      <c r="B80" s="25"/>
+        <v>605</v>
+      </c>
+      <c r="B80" s="25">
+        <v>15</v>
+      </c>
       <c r="C80" s="26"/>
       <c r="D80" s="26"/>
       <c r="E80" s="26"/>
@@ -11945,11 +11954,11 @@
       <c r="X80" s="26"/>
       <c r="Y80" s="26"/>
       <c r="Z80" s="26"/>
-      <c r="AA80" s="27">
-        <v>20</v>
-      </c>
+      <c r="AA80" s="27"/>
       <c r="AB80" s="25"/>
-      <c r="AC80" s="26"/>
+      <c r="AC80" s="26">
+        <v>5</v>
+      </c>
       <c r="AD80" s="26"/>
       <c r="AE80" s="26"/>
       <c r="AF80" s="27"/>
@@ -11963,7 +11972,7 @@
     </row>
     <row r="81" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A81" s="19" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="B81" s="25"/>
       <c r="C81" s="26"/>
@@ -11976,9 +11985,7 @@
       <c r="J81" s="26"/>
       <c r="K81" s="26"/>
       <c r="L81" s="26"/>
-      <c r="M81" s="27">
-        <v>10</v>
-      </c>
+      <c r="M81" s="27"/>
       <c r="N81" s="25"/>
       <c r="O81" s="26"/>
       <c r="P81" s="26"/>
@@ -11992,7 +11999,9 @@
       <c r="X81" s="26"/>
       <c r="Y81" s="26"/>
       <c r="Z81" s="26"/>
-      <c r="AA81" s="27"/>
+      <c r="AA81" s="27">
+        <v>20</v>
+      </c>
       <c r="AB81" s="25"/>
       <c r="AC81" s="26"/>
       <c r="AD81" s="26"/>
@@ -12008,7 +12017,7 @@
     </row>
     <row r="82" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A82" s="19" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="B82" s="25"/>
       <c r="C82" s="26"/>
@@ -12021,16 +12030,16 @@
       <c r="J82" s="26"/>
       <c r="K82" s="26"/>
       <c r="L82" s="26"/>
-      <c r="M82" s="27"/>
+      <c r="M82" s="27">
+        <v>10</v>
+      </c>
       <c r="N82" s="25"/>
       <c r="O82" s="26"/>
       <c r="P82" s="26"/>
       <c r="Q82" s="27"/>
       <c r="R82" s="25"/>
       <c r="S82" s="26"/>
-      <c r="T82" s="26">
-        <v>10</v>
-      </c>
+      <c r="T82" s="26"/>
       <c r="U82" s="26"/>
       <c r="V82" s="26"/>
       <c r="W82" s="26"/>
@@ -12051,6 +12060,51 @@
       <c r="AL82" s="26"/>
       <c r="AM82" s="27"/>
     </row>
+    <row r="83" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A83" s="19" t="s">
+        <v>626</v>
+      </c>
+      <c r="B83" s="25"/>
+      <c r="C83" s="26"/>
+      <c r="D83" s="26"/>
+      <c r="E83" s="26"/>
+      <c r="F83" s="26"/>
+      <c r="G83" s="26"/>
+      <c r="H83" s="27"/>
+      <c r="I83" s="25"/>
+      <c r="J83" s="26"/>
+      <c r="K83" s="26"/>
+      <c r="L83" s="26"/>
+      <c r="M83" s="27"/>
+      <c r="N83" s="25"/>
+      <c r="O83" s="26"/>
+      <c r="P83" s="26"/>
+      <c r="Q83" s="27"/>
+      <c r="R83" s="25"/>
+      <c r="S83" s="26"/>
+      <c r="T83" s="26">
+        <v>10</v>
+      </c>
+      <c r="U83" s="26"/>
+      <c r="V83" s="26"/>
+      <c r="W83" s="26"/>
+      <c r="X83" s="26"/>
+      <c r="Y83" s="26"/>
+      <c r="Z83" s="26"/>
+      <c r="AA83" s="27"/>
+      <c r="AB83" s="25"/>
+      <c r="AC83" s="26"/>
+      <c r="AD83" s="26"/>
+      <c r="AE83" s="26"/>
+      <c r="AF83" s="27"/>
+      <c r="AG83" s="25"/>
+      <c r="AH83" s="26"/>
+      <c r="AI83" s="26"/>
+      <c r="AJ83" s="27"/>
+      <c r="AK83" s="25"/>
+      <c r="AL83" s="26"/>
+      <c r="AM83" s="27"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12061,13 +12115,13 @@
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:B82"/>
+  <dimension ref="A1:B83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J38" sqref="J38"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12085,408 +12139,409 @@
         <v>636</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
-        <v>53</v>
-      </c>
-    </row>
+    <row r="2" spans="1:2" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="19" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="19" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="19" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="19" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="19" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="19" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="19" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="19" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="19" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="19" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="19" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="19" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="19" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="19" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="19" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="19" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="19" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="19" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="19" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="19" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="19" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="19" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="19" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="19" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="19" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="19" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="19" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="19" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="19" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="19" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="19" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="19" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="19" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="19" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="19" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="19" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="19" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="19" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="19" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="19" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="19" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="19" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="19" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="19" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="19" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="19" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="19" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="19" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="19" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="19" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="19" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="19" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="19" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="19" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="19" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="19" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="19" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" s="19" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="19" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" s="19" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" s="19" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" s="19" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="19" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="19" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" s="19" t="s">
         <v>626</v>
       </c>
     </row>
@@ -12500,23 +12555,23 @@
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:B82"/>
+  <dimension ref="A1:B83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J40" sqref="J40"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>635</v>
       </c>
@@ -12524,408 +12579,409 @@
         <v>639</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:2" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="19" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="19" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="19" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="19" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="19" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="19" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="19" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="19" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="19" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="19" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="19" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="19" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="19" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="19" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="19" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="19" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="19" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="19" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="19" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="19" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="19" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="19" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="19" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="19" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="19" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="19" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="19" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="19" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="19" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="19" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="19" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="19" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="19" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="19" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="19" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="19" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="19" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="19" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="19" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="19" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="19" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="19" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="19" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="19" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="19" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="19" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="19" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="19" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="19" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="19" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="19" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="19" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="19" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="19" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="19" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="19" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="19" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="19" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="19" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="19" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="19" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="19" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="19" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="19" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="19" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="19" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="19" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="19" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="19" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="19" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="19" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="19" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="19" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="19" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="19" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="19" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="19" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="19" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="19" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="19" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="19" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="19" t="s">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="19" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="19" t="s">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="19" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="19" t="s">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="19" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="19" t="s">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="19" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="19" t="s">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="19" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A59" s="19" t="s">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" s="19" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A60" s="19" t="s">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" s="19" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A61" s="19" t="s">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" s="19" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="19" t="s">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" s="19" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A63" s="19" t="s">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" s="19" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A64" s="19" t="s">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="19" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A65" s="19" t="s">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" s="19" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="19" t="s">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" s="19" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A67" s="19" t="s">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" s="19" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A68" s="19" t="s">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" s="19" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A69" s="19" t="s">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" s="19" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="19" t="s">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" s="19" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A71" s="19" t="s">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" s="19" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A72" s="19" t="s">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" s="19" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A73" s="19" t="s">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" s="19" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A74" s="19" t="s">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" s="19" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A75" s="19" t="s">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" s="19" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A76" s="19" t="s">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" s="19" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A77" s="19" t="s">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" s="19" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A78" s="19" t="s">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" s="19" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A79" s="19" t="s">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" s="19" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A80" s="19" t="s">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" s="19" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A81" s="19" t="s">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" s="19" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A82" s="19" t="s">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" s="19" t="s">
         <v>626</v>
       </c>
     </row>
@@ -12939,23 +12995,23 @@
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:B82"/>
+  <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K40" sqref="K40"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>635</v>
       </c>
@@ -12963,408 +13019,409 @@
         <v>640</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:2" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="19" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="19" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="19" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="19" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="19" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="19" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="19" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="19" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="19" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="19" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="19" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="19" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="19" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="19" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="19" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="19" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="19" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="19" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="19" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="19" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="19" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="19" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="19" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="19" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="19" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="19" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="19" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="19" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="19" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="19" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="19" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="19" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="19" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="19" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="19" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="19" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="19" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="19" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="19" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="19" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="19" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="19" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="19" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="19" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="19" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="19" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="19" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="19" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="19" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="19" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="19" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="19" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="19" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="19" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="19" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="19" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="19" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="19" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="19" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="19" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="19" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="19" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="19" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="19" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="19" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="19" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="19" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="19" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="19" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="19" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="19" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="19" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="19" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="19" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="19" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="19" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="19" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="19" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="19" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="19" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="19" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="19" t="s">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="19" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="19" t="s">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="19" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="19" t="s">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="19" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="19" t="s">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="19" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="19" t="s">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="19" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A59" s="19" t="s">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" s="19" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A60" s="19" t="s">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" s="19" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A61" s="19" t="s">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" s="19" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="19" t="s">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" s="19" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A63" s="19" t="s">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" s="19" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A64" s="19" t="s">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="19" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A65" s="19" t="s">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" s="19" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="19" t="s">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" s="19" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A67" s="19" t="s">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" s="19" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A68" s="19" t="s">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" s="19" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A69" s="19" t="s">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" s="19" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="19" t="s">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" s="19" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A71" s="19" t="s">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" s="19" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A72" s="19" t="s">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" s="19" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A73" s="19" t="s">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" s="19" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A74" s="19" t="s">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" s="19" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A75" s="19" t="s">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" s="19" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A76" s="19" t="s">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" s="19" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A77" s="19" t="s">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" s="19" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A78" s="19" t="s">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" s="19" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A79" s="19" t="s">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" s="19" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A80" s="19" t="s">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" s="19" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A81" s="19" t="s">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" s="19" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A82" s="19" t="s">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" s="19" t="s">
         <v>626</v>
       </c>
     </row>

--- a/Original/Tables/NewTU_Technologies_ORG.xlsx
+++ b/Original/Tables/NewTU_Technologies_ORG.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11865"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11865" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Technologies" sheetId="1" r:id="rId1"/>
@@ -2603,7 +2603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -8053,11 +8053,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8646,7 +8646,7 @@
       <c r="T9" s="22"/>
       <c r="U9" s="22"/>
       <c r="V9" s="22">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="W9" s="22"/>
       <c r="X9" s="22">
